--- a/Results/Filter/dp-partial-ner.xlsx
+++ b/Results/Filter/dp-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="1704">
   <si>
     <t>id</t>
   </si>
@@ -4024,874 +4024,952 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
+    <t>|place</t>
+  </si>
+  <si>
     <t>food|portions</t>
   </si>
   <si>
-    <t>food|times</t>
-  </si>
-  <si>
     <t>confit|duck</t>
   </si>
   <si>
     <t>list|wine|values</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>pork|chow|family</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
+  </si>
+  <si>
+    <t>mai|pork|fun|chow|family|shu</t>
+  </si>
+  <si>
+    <t>|price</t>
+  </si>
+  <si>
+    <t>service|perfection</t>
+  </si>
+  <si>
+    <t>|visit</t>
+  </si>
+  <si>
+    <t>bit|stuff|food|fusion</t>
+  </si>
+  <si>
+    <t>|chicken|puree</t>
+  </si>
+  <si>
+    <t>|salt|bit</t>
+  </si>
+  <si>
+    <t>effort|tho</t>
+  </si>
+  <si>
+    <t>|list|sake</t>
+  </si>
+  <si>
+    <t>roll|spicy|tempura|tuna|appetizer|rock|shrimp</t>
+  </si>
+  <si>
+    <t>bit|service</t>
+  </si>
+  <si>
+    <t>taste|mouth|service</t>
+  </si>
+  <si>
+    <t>waiter|bit|self-respect</t>
+  </si>
+  <si>
+    <t>notch|service</t>
+  </si>
+  <si>
+    <t>sushi|restaurant|sea|urchin|sushi</t>
+  </si>
+  <si>
+    <t>rice|ration</t>
+  </si>
+  <si>
+    <t>advanatage|half|price|sushi|deal</t>
+  </si>
+  <si>
+    <t>|food|impecable</t>
+  </si>
+  <si>
+    <t>menu|prix|fixe|penny</t>
+  </si>
+  <si>
+    <t>somosas|chai|chole|dhosas|dhal</t>
+  </si>
+  <si>
+    <t>service|varys</t>
+  </si>
+  <si>
+    <t>|food</t>
+  </si>
+  <si>
+    <t>ambience|lunch|conversation</t>
+  </si>
+  <si>
+    <t>river|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|food|price|beginning</t>
+  </si>
+  <si>
+    <t>dessert|lava|cake</t>
+  </si>
+  <si>
+    <t>|bistro|path</t>
+  </si>
+  <si>
+    <t>desserts|soup|food|way</t>
+  </si>
+  <si>
+    <t>ambience|food|companion|trip|world</t>
+  </si>
+  <si>
+    <t>pizza|cheese</t>
+  </si>
+  <si>
+    <t>ingredients|pizza</t>
+  </si>
+  <si>
+    <t>meals|life|minnow</t>
+  </si>
+  <si>
+    <t>seafood|wine|list|menu|surprises</t>
+  </si>
+  <si>
+    <t>combination|ingredients|dishes</t>
+  </si>
+  <si>
+    <t>portion|pastrami</t>
+  </si>
+  <si>
+    <t>shrimp|wife</t>
+  </si>
+  <si>
+    <t>|signs|menus|food|waitstaff</t>
+  </si>
+  <si>
+    <t>leon|fare|bistro|village|specials|gem|atmosphere|hip</t>
+  </si>
+  <si>
+    <t>wife|staff</t>
+  </si>
+  <si>
+    <t>wine|prices</t>
+  </si>
+  <si>
+    <t>service|decor|food|portions</t>
+  </si>
+  <si>
+    <t>hostess|point</t>
+  </si>
+  <si>
+    <t>oily|food</t>
+  </si>
+  <si>
+    <t>food|wine|place|service</t>
+  </si>
+  <si>
+    <t>wait|trouble</t>
+  </si>
+  <si>
+    <t>glass|wine</t>
+  </si>
+  <si>
+    <t>|pizza</t>
+  </si>
+  <si>
+    <t>pizza|way</t>
+  </si>
+  <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>lunch|reviews</t>
+  </si>
+  <si>
+    <t>|sauce|flavor|food</t>
+  </si>
+  <si>
+    <t>waitress|food</t>
+  </si>
+  <si>
+    <t>pizza|service</t>
+  </si>
+  <si>
+    <t>|wait</t>
+  </si>
+  <si>
+    <t>block|end</t>
+  </si>
+  <si>
+    <t>sushi|city|hands</t>
+  </si>
+  <si>
+    <t>food|place</t>
+  </si>
+  <si>
+    <t>tuna|gari</t>
+  </si>
+  <si>
+    <t>variety|menu</t>
+  </si>
+  <si>
+    <t>|dumplings|lot|section</t>
+  </si>
+  <si>
+    <t>sashimi|rolls</t>
+  </si>
+  <si>
+    <t>|tuna</t>
+  </si>
+  <si>
+    <t>terrace|garden</t>
+  </si>
+  <si>
+    <t>food|service</t>
+  </si>
+  <si>
+    <t>bet|tartare|steak</t>
+  </si>
+  <si>
+    <t>restaurant|kitchen|part</t>
+  </si>
+  <si>
+    <t>selection|wine|value|price|champagne|house</t>
+  </si>
+  <si>
+    <t>vibe|food|bit</t>
+  </si>
+  <si>
+    <t>bread|tastes|pizza|pizza|toppings|nyc</t>
+  </si>
+  <si>
+    <t>neighborhood|food</t>
+  </si>
+  <si>
+    <t>setting|service|occasion</t>
+  </si>
+  <si>
+    <t>|roll|scallop</t>
+  </si>
+  <si>
+    <t>moules|ravioli|lobster</t>
+  </si>
+  <si>
+    <t>d'|maitre</t>
+  </si>
+  <si>
+    <t>|dessert</t>
+  </si>
+  <si>
+    <t>|drinks</t>
+  </si>
+  <si>
+    <t>chef|specials</t>
+  </si>
+  <si>
+    <t>lounge</t>
+  </si>
+  <si>
+    <t>combinations|delight|food</t>
+  </si>
+  <si>
+    <t>beers|wines</t>
+  </si>
+  <si>
+    <t>waitress|table|bathroom|dinner|orders|toilet</t>
+  </si>
+  <si>
+    <t>service|food</t>
+  </si>
+  <si>
+    <t>everythig</t>
+  </si>
+  <si>
+    <t>potatoes|tuna|wasabe</t>
+  </si>
+  <si>
+    <t>atmosphere|avenue</t>
+  </si>
+  <si>
+    <t>pizza|mozzarella|cheese|pizzaria</t>
+  </si>
+  <si>
+    <t>selection|appetizer|complaints</t>
+  </si>
+  <si>
+    <t>pie|uws|staff|business</t>
+  </si>
+  <si>
+    <t>salad|food|restaurant</t>
+  </si>
+  <si>
+    <t>quality|dining|restaurant</t>
+  </si>
+  <si>
+    <t>|cheeseburger|excpetiona|chicken|pot|service</t>
+  </si>
+  <si>
+    <t>food|options|rule</t>
+  </si>
+  <si>
+    <t>|roll|heaven</t>
+  </si>
+  <si>
+    <t>sake|menu</t>
+  </si>
+  <si>
+    <t>|roll|teriyaki</t>
+  </si>
+  <si>
+    <t>food|experience|fat</t>
+  </si>
+  <si>
+    <t>selection|wine|list</t>
+  </si>
+  <si>
+    <t>decour|hall|restaurant</t>
+  </si>
+  <si>
+    <t>decor|boths|side|side|hall</t>
+  </si>
+  <si>
+    <t>|band|atmosphere|jazz</t>
+  </si>
+  <si>
+    <t>meal|nyc</t>
+  </si>
+  <si>
+    <t>food|diamond|balance|herbs|tomatoes|homemade</t>
+  </si>
+  <si>
+    <t>laugh|bathrooms|decor</t>
+  </si>
+  <si>
+    <t>husband|tortelini|beers|food|dish</t>
+  </si>
+  <si>
+    <t>|bagel</t>
+  </si>
+  <si>
+    <t>workers|bagel|cream|cheese</t>
+  </si>
+  <si>
+    <t>frist|cafe|st.|food|service</t>
+  </si>
+  <si>
+    <t>roll|lobster|mayo|mayo</t>
+  </si>
+  <si>
+    <t>guests|salad|pizza|fish|chips|fe</t>
+  </si>
+  <si>
+    <t>cafe|st.|service|food</t>
+  </si>
+  <si>
+    <t>|staff</t>
+  </si>
+  <si>
+    <t>chow|fun|chow|oily</t>
+  </si>
+  <si>
+    <t>dumplings|pancakes</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>|sushi|tuna|average|rolls|inside|flavor</t>
+  </si>
+  <si>
+    <t>penang|pad</t>
+  </si>
+  <si>
+    <t>price|service</t>
+  </si>
+  <si>
+    <t>restaurant|food|course</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fish|pam</t>
+  </si>
+  <si>
+    <t>vibe|lots</t>
+  </si>
+  <si>
+    <t>|ingredients</t>
+  </si>
+  <si>
+    <t>|roll|spicy|tuna</t>
+  </si>
+  <si>
+    <t>yellowtail</t>
+  </si>
+  <si>
+    <t>choices|food</t>
+  </si>
+  <si>
+    <t>price|food|service</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>service|perfection</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>stuff|food|fusion|thing</t>
-  </si>
-  <si>
-    <t>thing|chicken|puree</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>list|sake</t>
-  </si>
-  <si>
-    <t>roll|spicy|tempura|tuna|appetizer|rock|shrimp</t>
-  </si>
-  <si>
-    <t>taste|mouth|service</t>
-  </si>
-  <si>
-    <t>self-respect</t>
-  </si>
-  <si>
-    <t>notch|service</t>
-  </si>
-  <si>
-    <t>sushi|restaurant|urchin|sushi</t>
-  </si>
-  <si>
-    <t>ration</t>
-  </si>
-  <si>
-    <t>advanatage|half|price|sushi|deal</t>
-  </si>
-  <si>
-    <t>food|impecable</t>
-  </si>
-  <si>
-    <t>menu|prix|fixe|penny</t>
-  </si>
-  <si>
-    <t>somosas|chai|chole|dhosas|dhal</t>
-  </si>
-  <si>
-    <t>service|varys</t>
-  </si>
-  <si>
-    <t>ambience|lunch|conversation</t>
-  </si>
-  <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|food|price|beginning</t>
-  </si>
-  <si>
-    <t>dessert|lava|cake</t>
-  </si>
-  <si>
-    <t>bistro|path</t>
-  </si>
-  <si>
-    <t>desserts|soup|food</t>
-  </si>
-  <si>
-    <t>ambience|food|trip|world</t>
-  </si>
-  <si>
-    <t>pizza|cheese</t>
-  </si>
-  <si>
-    <t>ingredients|pizza</t>
-  </si>
-  <si>
-    <t>meals|life|minnow</t>
-  </si>
-  <si>
-    <t>seafood|wine|list|menu|surprises</t>
-  </si>
-  <si>
-    <t>combination|ingredients|dishes</t>
-  </si>
-  <si>
-    <t>portion|pastrami</t>
-  </si>
-  <si>
-    <t>shrimp|wife</t>
-  </si>
-  <si>
-    <t>signs|menus|food|waitstaff</t>
-  </si>
-  <si>
-    <t>leon|fare|bistro|village|specials|atmosphere</t>
-  </si>
-  <si>
-    <t>wife|staff</t>
-  </si>
-  <si>
-    <t>wine|prices</t>
-  </si>
-  <si>
-    <t>service|decor|food|portions</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>oily|food</t>
-  </si>
-  <si>
-    <t>food|wine|times|place|service</t>
-  </si>
-  <si>
-    <t>wait|trouble</t>
-  </si>
-  <si>
-    <t>glass|wine</t>
-  </si>
-  <si>
-    <t>toppings</t>
-  </si>
-  <si>
-    <t>lunch|reviews</t>
-  </si>
-  <si>
-    <t>sauce|flavor|food</t>
-  </si>
-  <si>
-    <t>pizza|service</t>
-  </si>
-  <si>
-    <t>sushi|hands</t>
-  </si>
-  <si>
-    <t>food|place</t>
-  </si>
-  <si>
-    <t>tuna|gari</t>
-  </si>
-  <si>
-    <t>variety|menu</t>
-  </si>
-  <si>
-    <t>dumplings|section</t>
-  </si>
-  <si>
-    <t>sashimi|rolls</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>terrace|garden</t>
-  </si>
-  <si>
-    <t>food|service</t>
-  </si>
-  <si>
-    <t>tartare|steak</t>
-  </si>
-  <si>
-    <t>restaurant|kitchen|part</t>
-  </si>
-  <si>
-    <t>selection|wine|value|price|champagne|house</t>
-  </si>
-  <si>
-    <t>vibe|food</t>
-  </si>
-  <si>
-    <t>bread|tastes|pizza|pizza|toppings</t>
-  </si>
-  <si>
-    <t>neighborhood|food</t>
-  </si>
-  <si>
-    <t>setting|service|occasion</t>
-  </si>
-  <si>
-    <t>roll|scallop</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>maitre</t>
+    <t>takeout|tupperware|quality</t>
+  </si>
+  <si>
+    <t>salad|caesar</t>
+  </si>
+  <si>
+    <t>pasta|dish</t>
+  </si>
+  <si>
+    <t>tiramisu|chocolate|cake</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>|dishes|wine|atmosphere</t>
+  </si>
+  <si>
+    <t>place|pizza|pizza</t>
+  </si>
+  <si>
+    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>service|people</t>
+  </si>
+  <si>
+    <t>|tuna|rubber|hanger</t>
+  </si>
+  <si>
+    <t>service|ambience</t>
+  </si>
+  <si>
+    <t>dish|mignon</t>
+  </si>
+  <si>
+    <t>|section|menu</t>
+  </si>
+  <si>
+    <t>place|spot</t>
+  </si>
+  <si>
+    <t>|service|pizza|wine|wine|area|backyard|dining|place</t>
+  </si>
+  <si>
+    <t>|menu|restaurant</t>
+  </si>
+  <si>
+    <t>|wines</t>
+  </si>
+  <si>
+    <t>service|joint|price|category</t>
+  </si>
+  <si>
+    <t>service|grazie</t>
+  </si>
+  <si>
+    <t>factor|food</t>
+  </si>
+  <si>
+    <t>rosemary|flavoring|orange</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|staff|wait</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|service|fish</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>family|pizzeria|owners|pizza|fornino|blows|families|receipies</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>food|atmosphere|service|service</t>
+  </si>
+  <si>
+    <t>room|dining|music</t>
+  </si>
+  <si>
+    <t>service|meal|menu</t>
+  </si>
+  <si>
+    <t>view|service|notch|wonderfull</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>service|place|date|occassion</t>
+  </si>
+  <si>
+    <t>food|menu|price|price|allergies|prixe|fixe|tasting</t>
+  </si>
+  <si>
+    <t>place|lot|fun</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>drinks|way</t>
+  </si>
+  <si>
+    <t>|service</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>resturant|prices</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>ambience|service</t>
+  </si>
+  <si>
+    <t>|atmosphere|establishment</t>
+  </si>
+  <si>
+    <t>|owner|staff</t>
+  </si>
+  <si>
+    <t>prices|quality</t>
+  </si>
+  <si>
+    <t>trattoria|top</t>
+  </si>
+  <si>
+    <t>|prices|gods|secret</t>
+  </si>
+  <si>
+    <t>|room|secret</t>
+  </si>
+  <si>
+    <t>food|service|value</t>
+  </si>
+  <si>
+    <t>hostess|waitress</t>
+  </si>
+  <si>
+    <t>dessert|waitress|bill|chance|order</t>
+  </si>
+  <si>
+    <t>place|food</t>
+  </si>
+  <si>
+    <t>|dishes</t>
+  </si>
+  <si>
+    <t>decor|service</t>
+  </si>
+  <si>
+    <t>svc|group|bit|esp</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>sandwiches|chips|side</t>
+  </si>
+  <si>
+    <t>experience|desk|atmosphere</t>
+  </si>
+  <si>
+    <t>bar|cigar|staff|patroon</t>
+  </si>
+  <si>
+    <t>service|ambience|date|outing|group</t>
+  </si>
+  <si>
+    <t>|fallback|prices|restaurant</t>
+  </si>
+  <si>
+    <t>seafood|prices</t>
+  </si>
+  <si>
+    <t>lobster|sandwich|price</t>
+  </si>
+  <si>
+    <t>|occassion|sort|candle</t>
+  </si>
+  <si>
+    <t>waiter|mark</t>
+  </si>
+  <si>
+    <t>food|waiters</t>
+  </si>
+  <si>
+    <t>plate|cheese|bargain|delight</t>
+  </si>
+  <si>
+    <t>|list|wine</t>
+  </si>
+  <si>
+    <t>atmosphere|hesititate</t>
+  </si>
+  <si>
+    <t>food|deal|place|self</t>
+  </si>
+  <si>
+    <t>|town</t>
+  </si>
+  <si>
+    <t>|dont|cafe</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>tip|model/waitress|manager</t>
+  </si>
+  <si>
+    <t>staff|cafe|wish|place</t>
+  </si>
+  <si>
+    <t>ambience|prices|fun|food|top|fact</t>
+  </si>
+  <si>
+    <t>experience|customer|service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>reservations|hostess|name</t>
+  </si>
+  <si>
+    <t>weather|table|snag</t>
+  </si>
+  <si>
+    <t>staff|bathroom</t>
+  </si>
+  <si>
+    <t>|patrons|closing</t>
+  </si>
+  <si>
+    <t>staff|company|meal</t>
+  </si>
+  <si>
+    <t>|patio</t>
+  </si>
+  <si>
+    <t>service|bit</t>
+  </si>
+  <si>
+    <t>area|garden|herb</t>
+  </si>
+  <si>
+    <t>place|points</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>price|pizzas</t>
+  </si>
+  <si>
+    <t>waiter|money|guys|outta</t>
+  </si>
+  <si>
+    <t>staff|wait</t>
+  </si>
+  <si>
+    <t>|sandwiches</t>
+  </si>
+  <si>
+    <t>room|clerks|style|substance|folks</t>
+  </si>
+  <si>
+    <t>lawns</t>
+  </si>
+  <si>
+    <t>place|prices</t>
+  </si>
+  <si>
+    <t>|sandwich|cheese|manager</t>
+  </si>
+  <si>
+    <t>music|isnt</t>
+  </si>
+  <si>
+    <t>atmoshere|bit</t>
+  </si>
+  <si>
+    <t>crew|staff|staff</t>
+  </si>
+  <si>
+    <t>food|price</t>
+  </si>
+  <si>
+    <t>staff|wait|part|beautification|fun|way|way</t>
+  </si>
+  <si>
+    <t>part|atmosphere|ls|bts</t>
+  </si>
+  <si>
+    <t>shanty|vanilla|setting|music|mmmm</t>
+  </si>
+  <si>
+    <t>taste|music|dj|lady</t>
+  </si>
+  <si>
+    <t>location|fact|prices</t>
+  </si>
+  <si>
+    <t>feature|terrace</t>
+  </si>
+  <si>
+    <t>|setting</t>
+  </si>
+  <si>
+    <t>rest|sum</t>
+  </si>
+  <si>
+    <t>sum|atmosphere|wait|gig|alternative|tables</t>
+  </si>
+  <si>
+    <t>service|atmosphere</t>
+  </si>
+  <si>
+    <t>decor|prices|place|city</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>spreads|toppings</t>
+  </si>
+  <si>
+    <t>ambience|staff|place</t>
+  </si>
+  <si>
+    <t>food|prices|service|service</t>
+  </si>
+  <si>
+    <t>quality|place</t>
+  </si>
+  <si>
+    <t>service|drawbacks|toast</t>
+  </si>
+  <si>
+    <t>service|virgins|regulars|everyone</t>
+  </si>
+  <si>
+    <t>measures|liquers|quibbles|bill</t>
+  </si>
+  <si>
+    <t>|restaurant|nyc|gimmick|theme</t>
+  </si>
+  <si>
+    <t>atomosphere|tables</t>
+  </si>
+  <si>
+    <t>food|price|place</t>
+  </si>
+  <si>
+    <t>ceiling|room|dining</t>
+  </si>
+  <si>
+    <t>place|expectations</t>
+  </si>
+  <si>
+    <t>food|wines|selecion|prices</t>
+  </si>
+  <si>
+    <t>ravioli|bit</t>
+  </si>
+  <si>
+    <t>|food|draw</t>
+  </si>
+  <si>
+    <t>design|atmosphere</t>
+  </si>
+  <si>
+    <t>bottles|wine</t>
+  </si>
+  <si>
+    <t>|opera|jukebox|strokes</t>
+  </si>
+  <si>
+    <t>drinks|half</t>
+  </si>
+  <si>
+    <t>space|redone</t>
+  </si>
+  <si>
+    <t>seating|delight</t>
+  </si>
+  <si>
+    <t>indoor</t>
+  </si>
+  <si>
+    <t>|decor</t>
+  </si>
+  <si>
+    <t>food|prices</t>
+  </si>
+  <si>
+    <t>food|tasting|prices|prices</t>
+  </si>
+  <si>
+    <t>jazz|duo|point</t>
+  </si>
+  <si>
+    <t>music|food|prices|prices|service</t>
+  </si>
+  <si>
+    <t>price|quality|fish|return|visit</t>
+  </si>
+  <si>
+    <t>decor|restaurant|food|staff|manhattanite|side|west|prices|clientele|clientele</t>
+  </si>
+  <si>
+    <t>restaurants|uws|food|wait-staff|service|diner|management</t>
+  </si>
+  <si>
+    <t>side|service|food</t>
+  </si>
+  <si>
+    <t>prices|food</t>
+  </si>
+  <si>
+    <t>food|decor|prices|prices</t>
+  </si>
+  <si>
+    <t>scene|character|light|place</t>
+  </si>
+  <si>
+    <t>fish|chips</t>
+  </si>
+  <si>
+    <t>restaurant|friend</t>
+  </si>
+  <si>
+    <t>space|kind|alice|wonderland|setting</t>
+  </si>
+  <si>
+    <t>|place|bit</t>
+  </si>
+  <si>
+    <t>im|place|fun|pirces</t>
+  </si>
+  <si>
+    <t>|dinner</t>
+  </si>
+  <si>
+    <t>dinner|feet</t>
+  </si>
+  <si>
+    <t>area|garden</t>
+  </si>
+  <si>
+    <t>guacamole|plate</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>|restaurant</t>
+  </si>
+  <si>
+    <t>food|price|people|people</t>
+  </si>
+  <si>
+    <t>booths|eachother|couple</t>
+  </si>
+  <si>
+    <t>|prices|view</t>
+  </si>
+  <si>
+    <t>bathroom|mens</t>
+  </si>
+  <si>
+    <t>price|prestige|location</t>
+  </si>
+  <si>
+    <t>|boths</t>
+  </si>
+  <si>
+    <t>restaurant|food</t>
+  </si>
+  <si>
+    <t>prices|board</t>
+  </si>
+  <si>
+    <t>belly|dancing|crowd</t>
+  </si>
+  <si>
+    <t>place|value</t>
+  </si>
+  <si>
+    <t>atmosphere|bit|scheme</t>
+  </si>
+  <si>
+    <t>service|price|dish</t>
+  </si>
+  <si>
+    <t>martinis</t>
+  </si>
+  <si>
+    <t>dj|bunch|birthday|friends</t>
+  </si>
+  <si>
+    <t>dinner|wine</t>
+  </si>
+  <si>
+    <t>environment|name</t>
+  </si>
+  <si>
+    <t>place|joe|whealthy</t>
+  </si>
+  <si>
+    <t>|restaurants|landmark</t>
+  </si>
+  <si>
+    <t>environment|lot|guys|wives|escorts</t>
+  </si>
+  <si>
+    <t>|diners</t>
   </si>
   <si>
     <t>drinks</t>
   </si>
   <si>
-    <t>specials</t>
-  </si>
-  <si>
-    <t>lounge</t>
-  </si>
-  <si>
-    <t>combinations|delight|food</t>
-  </si>
-  <si>
-    <t>beers|wines</t>
-  </si>
-  <si>
-    <t>table|bathroom|dinner|orders|toilet</t>
-  </si>
-  <si>
-    <t>service|food</t>
-  </si>
-  <si>
-    <t>everythig</t>
-  </si>
-  <si>
-    <t>potatoes|tuna|wasabe</t>
-  </si>
-  <si>
-    <t>pizza|mozzarella|cheese|pizzaria</t>
-  </si>
-  <si>
-    <t>selection|appetizer|complaints</t>
-  </si>
-  <si>
-    <t>staff|business</t>
-  </si>
-  <si>
-    <t>food|restaurant</t>
-  </si>
-  <si>
-    <t>quality|dining|restaurant</t>
-  </si>
-  <si>
-    <t>cheeseburger|excpetiona|chicken|service</t>
-  </si>
-  <si>
-    <t>food|options|rule</t>
-  </si>
-  <si>
-    <t>roll|heaven</t>
-  </si>
-  <si>
-    <t>sake|menu</t>
-  </si>
-  <si>
-    <t>roll|teriyaki</t>
-  </si>
-  <si>
-    <t>food|experience</t>
-  </si>
-  <si>
-    <t>selection|wine|list</t>
-  </si>
-  <si>
-    <t>decour|hall|restaurant</t>
-  </si>
-  <si>
-    <t>decor|boths|side|side|hall</t>
-  </si>
-  <si>
-    <t>band|atmosphere|jazz</t>
-  </si>
-  <si>
-    <t>food|diamond|balance|herbs|tomatoes|homemade</t>
-  </si>
-  <si>
-    <t>laugh|bathrooms|decor</t>
-  </si>
-  <si>
-    <t>husband|tortelini|beers|food|dish</t>
-  </si>
-  <si>
-    <t>workers|bagel|cream|cheese</t>
-  </si>
-  <si>
-    <t>frist|cafe|food|service</t>
-  </si>
-  <si>
-    <t>roll|mayo|mayo</t>
-  </si>
-  <si>
-    <t>guests|pizza|fish|chips</t>
-  </si>
-  <si>
-    <t>cafe|service|food</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
-  </si>
-  <si>
-    <t>dumplings|pancakes</t>
-  </si>
-  <si>
-    <t>thing|service|restaurant</t>
-  </si>
-  <si>
-    <t>sushi|tuna|average|rolls|inside|flavor</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
-  </si>
-  <si>
-    <t>price|service</t>
-  </si>
-  <si>
-    <t>restaurant|food|course</t>
-  </si>
-  <si>
-    <t>hats</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>vibe|lots</t>
-  </si>
-  <si>
-    <t>roll|spicy|tuna</t>
-  </si>
-  <si>
-    <t>yellowtail</t>
-  </si>
-  <si>
-    <t>choices|food</t>
-  </si>
-  <si>
-    <t>price|food|service</t>
-  </si>
-  <si>
-    <t>takeout|tupperware|quality</t>
-  </si>
-  <si>
-    <t>caesar</t>
-  </si>
-  <si>
-    <t>pasta|dish</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>dishes|wine|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pizza|pizza</t>
-  </si>
-  <si>
-    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>friend|mushroom|pizza</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|people</t>
-  </si>
-  <si>
-    <t>tuna|hanger</t>
-  </si>
-  <si>
-    <t>service|ambience</t>
-  </si>
-  <si>
-    <t>dish|mignon</t>
-  </si>
-  <si>
-    <t>section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|spot</t>
-  </si>
-  <si>
-    <t>service|pizza|wine|wine|area|backyard|dining|place</t>
-  </si>
-  <si>
-    <t>menu|restaurant</t>
-  </si>
-  <si>
-    <t>wines</t>
-  </si>
-  <si>
-    <t>service|joint|price|category</t>
-  </si>
-  <si>
-    <t>service|grazie</t>
-  </si>
-  <si>
-    <t>factor|food</t>
-  </si>
-  <si>
-    <t>rosemary|flavoring|orange</t>
-  </si>
-  <si>
-    <t>place|staff|wait</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|service|fish</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>family|pizzeria|owners|pizza|blows|families|receipies</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>food|atmosphere|service|service</t>
-  </si>
-  <si>
-    <t>room|dining|music</t>
-  </si>
-  <si>
-    <t>service|meal|menu</t>
-  </si>
-  <si>
-    <t>view|service|notch|wonderfull</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>service|place|occassion</t>
-  </si>
-  <si>
-    <t>food|menu|price|price|allergies|prixe|fixe|tasting</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>resturant|prices</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>ambience|service</t>
-  </si>
-  <si>
-    <t>nothing|atmosphere|establishment</t>
-  </si>
-  <si>
-    <t>prices|quality</t>
-  </si>
-  <si>
-    <t>trattoria</t>
-  </si>
-  <si>
-    <t>prices|gods|secret</t>
-  </si>
-  <si>
-    <t>room|secret</t>
-  </si>
-  <si>
-    <t>everytime|food|service|value</t>
-  </si>
-  <si>
-    <t>dessert|bill|chance|order</t>
-  </si>
-  <si>
-    <t>place|food</t>
-  </si>
-  <si>
-    <t>decor|service</t>
-  </si>
-  <si>
-    <t>times|service</t>
-  </si>
-  <si>
-    <t>group|times</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>sandwiches|anything|chips|side</t>
-  </si>
-  <si>
-    <t>experience|desk|atmosphere</t>
-  </si>
-  <si>
-    <t>cigar|staff</t>
-  </si>
-  <si>
-    <t>service|ambience|outing|group</t>
-  </si>
-  <si>
-    <t>fallback|prices|restaurant</t>
-  </si>
-  <si>
-    <t>seafood|prices</t>
-  </si>
-  <si>
-    <t>sandwich|price</t>
-  </si>
-  <si>
-    <t>occassion|sort|candle</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>food|waiters</t>
-  </si>
-  <si>
-    <t>plate|cheese|bargain|delight</t>
-  </si>
-  <si>
-    <t>list|wine</t>
-  </si>
-  <si>
-    <t>atmosphere|hesititate</t>
-  </si>
-  <si>
-    <t>food|deal|place|self</t>
-  </si>
-  <si>
-    <t>town</t>
-  </si>
-  <si>
-    <t>dont|cafe</t>
-  </si>
-  <si>
-    <t>service|people|thing</t>
-  </si>
-  <si>
-    <t>things|thing|tips</t>
-  </si>
-  <si>
-    <t>model/waitress</t>
-  </si>
-  <si>
-    <t>staff|cafe|wish|place</t>
-  </si>
-  <si>
-    <t>ambience|prices|food|fact</t>
-  </si>
-  <si>
-    <t>experience|customer|service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>reservations|times|name</t>
-  </si>
-  <si>
-    <t>weather|table|snag</t>
-  </si>
-  <si>
-    <t>staff|bathroom</t>
-  </si>
-  <si>
-    <t>patrons|closing</t>
-  </si>
-  <si>
-    <t>staff|company|meal</t>
-  </si>
-  <si>
-    <t>area|garden|herb</t>
-  </si>
-  <si>
-    <t>place|points</t>
-  </si>
-  <si>
-    <t>crowd</t>
-  </si>
-  <si>
-    <t>price|pizzas</t>
-  </si>
-  <si>
-    <t>money|guys|outta</t>
-  </si>
-  <si>
-    <t>staff|wait</t>
-  </si>
-  <si>
-    <t>sandwiches</t>
-  </si>
-  <si>
-    <t>room|clerks|style|substance|folks</t>
-  </si>
-  <si>
-    <t>lawns</t>
-  </si>
-  <si>
-    <t>anything|service</t>
-  </si>
-  <si>
-    <t>place|prices</t>
-  </si>
-  <si>
-    <t>sandwich|cheese</t>
-  </si>
-  <si>
-    <t>music|isnt</t>
-  </si>
-  <si>
-    <t>atmoshere</t>
-  </si>
-  <si>
-    <t>crew|staff|staff</t>
-  </si>
-  <si>
-    <t>food|price</t>
-  </si>
-  <si>
-    <t>staff|wait|part|beautification</t>
-  </si>
-  <si>
-    <t>part|atmosphere</t>
-  </si>
-  <si>
-    <t>shanty|vanilla|setting|music|mmmm</t>
-  </si>
-  <si>
-    <t>taste|music|lady</t>
-  </si>
-  <si>
-    <t>fact|prices</t>
-  </si>
-  <si>
-    <t>feature|terrace</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>atmosphere|wait|alternative|tables</t>
-  </si>
-  <si>
-    <t>service|atmosphere</t>
-  </si>
-  <si>
-    <t>decor|prices|place</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>spreads|toppings</t>
-  </si>
-  <si>
-    <t>ambience|staff|place</t>
-  </si>
-  <si>
-    <t>food|prices|service|service</t>
-  </si>
-  <si>
-    <t>quality|place</t>
-  </si>
-  <si>
-    <t>service|drawbacks|toast</t>
-  </si>
-  <si>
-    <t>service|virgins|regulars|everyone</t>
-  </si>
-  <si>
-    <t>measures|liquers|quibbles|bill</t>
-  </si>
-  <si>
-    <t>restaurant|gimmick|theme</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>atomosphere|tables</t>
-  </si>
-  <si>
-    <t>food|price|place</t>
-  </si>
-  <si>
-    <t>ceiling|room|dining</t>
-  </si>
-  <si>
-    <t>place|expectations</t>
-  </si>
-  <si>
-    <t>food|wines|selecion|prices</t>
-  </si>
-  <si>
-    <t>ravioli|everything</t>
-  </si>
-  <si>
-    <t>food|draw</t>
-  </si>
-  <si>
-    <t>design|atmosphere</t>
-  </si>
-  <si>
-    <t>bottles|wine</t>
-  </si>
-  <si>
-    <t>opera|everything|jukebox|strokes</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
-  </si>
-  <si>
-    <t>space|redone</t>
-  </si>
-  <si>
-    <t>seating|delight</t>
-  </si>
-  <si>
-    <t>indoor</t>
-  </si>
-  <si>
-    <t>food|prices</t>
-  </si>
-  <si>
-    <t>food|tasting|prices|prices</t>
-  </si>
-  <si>
-    <t>jazz|point</t>
-  </si>
-  <si>
-    <t>music|food|prices|prices|service</t>
-  </si>
-  <si>
-    <t>price|quality|fish|return|visit</t>
-  </si>
-  <si>
-    <t>decor|restaurant|food|staff|manhattanite|side|west|prices|clientele|clientele</t>
-  </si>
-  <si>
-    <t>restaurants|food|wait-staff|service|diner|management</t>
-  </si>
-  <si>
-    <t>side|service|food</t>
-  </si>
-  <si>
-    <t>prices|food</t>
-  </si>
-  <si>
-    <t>food|decor|prices|prices</t>
-  </si>
-  <si>
-    <t>scene|character|light|place</t>
-  </si>
-  <si>
-    <t>fish|chips</t>
-  </si>
-  <si>
-    <t>restaurant|friend</t>
-  </si>
-  <si>
-    <t>space|kind|alice|wonderland|setting</t>
-  </si>
-  <si>
-    <t>something|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pirces</t>
-  </si>
-  <si>
-    <t>dinner|feet</t>
-  </si>
-  <si>
-    <t>area|garden</t>
-  </si>
-  <si>
-    <t>guacamole|plate</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece</t>
-  </si>
-  <si>
-    <t>food|price|people|people</t>
-  </si>
-  <si>
-    <t>booths|eachother|couple</t>
-  </si>
-  <si>
-    <t>prices|view</t>
-  </si>
-  <si>
-    <t>bathroom|mens</t>
-  </si>
-  <si>
-    <t>price|prestige</t>
-  </si>
-  <si>
-    <t>restaurant|food</t>
-  </si>
-  <si>
-    <t>prices|board</t>
-  </si>
-  <si>
-    <t>belly|dancing|crowd</t>
-  </si>
-  <si>
-    <t>place|value</t>
-  </si>
-  <si>
-    <t>atmosphere|scheme</t>
-  </si>
-  <si>
-    <t>service|price|dish</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
-  </si>
-  <si>
-    <t>martinis</t>
-  </si>
-  <si>
-    <t>times|bunch|birthday|friends</t>
-  </si>
-  <si>
-    <t>dinner|wine</t>
-  </si>
-  <si>
-    <t>environment|name</t>
-  </si>
-  <si>
-    <t>place|whealthy</t>
-  </si>
-  <si>
-    <t>restaurants|landmark</t>
-  </si>
-  <si>
-    <t>environment|guys|wives|escorts</t>
-  </si>
-  <si>
-    <t>diners</t>
-  </si>
-  <si>
     <t>show|food|wallets|experience|dancers|belly</t>
   </si>
   <si>
-    <t>bill|portion</t>
+    <t>|bill|portion</t>
   </si>
   <si>
     <t>money</t>
@@ -4903,9 +4981,6 @@
     <t>restaurant|feel|price|place</t>
   </si>
   <si>
-    <t>something|food</t>
-  </si>
-  <si>
     <t>buffet|lunch</t>
   </si>
   <si>
@@ -4915,16 +4990,19 @@
     <t>stone|bowl</t>
   </si>
   <si>
-    <t>brasserie|opinion|restaurants</t>
+    <t>restaurant|city</t>
+  </si>
+  <si>
+    <t>brasserie|opinion|restaurants|city</t>
   </si>
   <si>
     <t>deal|party</t>
   </si>
   <si>
-    <t>company|point|price|things|brasserie</t>
-  </si>
-  <si>
-    <t>meat|kimchi|sauces|meal|service</t>
+    <t>company|date|point|price|brasserie</t>
+  </si>
+  <si>
+    <t>meat|kimchi|sauces|salad|meal|service</t>
   </si>
   <si>
     <t>bite|salmon|restaurants|salmon</t>
@@ -4936,10 +5014,10 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>joint|glance|bark</t>
-  </si>
-  <si>
-    <t>restaurant|clients</t>
+    <t>joint|dog|glance|bark</t>
+  </si>
+  <si>
+    <t>restaurant|nyc|clients</t>
   </si>
   <si>
     <t>bread</t>
@@ -5448,10 +5526,10 @@
         <v>1275</v>
       </c>
       <c r="F2" t="s">
-        <v>1088</v>
+        <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5471,10 +5549,10 @@
         <v>1276</v>
       </c>
       <c r="F3" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5494,10 +5572,10 @@
         <v>1277</v>
       </c>
       <c r="F4" t="s">
-        <v>1337</v>
+        <v>932</v>
       </c>
       <c r="G4" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5520,7 +5598,7 @@
         <v>1338</v>
       </c>
       <c r="G5" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5543,7 +5621,7 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5566,7 +5644,7 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5589,7 +5667,7 @@
         <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5612,7 +5690,7 @@
         <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5635,7 +5713,7 @@
         <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5658,7 +5736,7 @@
         <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5681,7 +5759,7 @@
         <v>1345</v>
       </c>
       <c r="G12" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5704,7 +5782,7 @@
         <v>1346</v>
       </c>
       <c r="G13" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5727,7 +5805,7 @@
         <v>1347</v>
       </c>
       <c r="G14" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5750,7 +5828,7 @@
         <v>1348</v>
       </c>
       <c r="G15" t="s">
-        <v>1649</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5773,7 +5851,7 @@
         <v>1349</v>
       </c>
       <c r="G16" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5796,7 +5874,7 @@
         <v>1350</v>
       </c>
       <c r="G17" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5816,10 +5894,10 @@
         <v>1275</v>
       </c>
       <c r="F18" t="s">
-        <v>946</v>
+        <v>1351</v>
       </c>
       <c r="G18" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5839,7 +5917,7 @@
         <v>1277</v>
       </c>
       <c r="G19" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5862,7 +5940,7 @@
         <v>946</v>
       </c>
       <c r="G20" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5885,7 +5963,7 @@
         <v>1119</v>
       </c>
       <c r="G21" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5905,10 +5983,10 @@
         <v>1275</v>
       </c>
       <c r="F22" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G22" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5928,10 +6006,10 @@
         <v>1275</v>
       </c>
       <c r="F23" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G23" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5954,7 +6032,7 @@
         <v>932</v>
       </c>
       <c r="G24" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5974,10 +6052,10 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G25" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5997,10 +6075,10 @@
         <v>1277</v>
       </c>
       <c r="F26" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G26" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6023,7 +6101,7 @@
         <v>995</v>
       </c>
       <c r="G27" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6043,10 +6121,10 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G28" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6066,10 +6144,10 @@
         <v>1278</v>
       </c>
       <c r="F29" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G29" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6089,10 +6167,10 @@
         <v>1283</v>
       </c>
       <c r="F30" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G30" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6112,10 +6190,10 @@
         <v>1285</v>
       </c>
       <c r="F31" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G31" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6138,7 +6216,7 @@
         <v>932</v>
       </c>
       <c r="G32" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6161,7 +6239,7 @@
         <v>958</v>
       </c>
       <c r="G33" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6184,7 +6262,7 @@
         <v>932</v>
       </c>
       <c r="G34" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6204,10 +6282,10 @@
         <v>1286</v>
       </c>
       <c r="F35" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G35" t="s">
-        <v>1651</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6227,10 +6305,10 @@
         <v>1275</v>
       </c>
       <c r="F36" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G36" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6253,7 +6331,7 @@
         <v>961</v>
       </c>
       <c r="G37" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6273,10 +6351,10 @@
         <v>1277</v>
       </c>
       <c r="F38" t="s">
-        <v>932</v>
+        <v>1362</v>
       </c>
       <c r="G38" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6296,10 +6374,10 @@
         <v>1284</v>
       </c>
       <c r="F39" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="G39" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6319,10 +6397,10 @@
         <v>1284</v>
       </c>
       <c r="F40" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G40" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6342,10 +6420,10 @@
         <v>1279</v>
       </c>
       <c r="F41" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G41" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6365,10 +6443,10 @@
         <v>1277</v>
       </c>
       <c r="F42" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="G42" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6388,10 +6466,10 @@
         <v>1284</v>
       </c>
       <c r="F43" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G43" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6414,7 +6492,7 @@
         <v>967</v>
       </c>
       <c r="G44" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6434,10 +6512,10 @@
         <v>1287</v>
       </c>
       <c r="F45" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="G45" t="s">
-        <v>1652</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6457,10 +6535,10 @@
         <v>1288</v>
       </c>
       <c r="F46" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G46" t="s">
-        <v>1653</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6480,10 +6558,10 @@
         <v>1276</v>
       </c>
       <c r="F47" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G47" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6506,7 +6584,7 @@
         <v>988</v>
       </c>
       <c r="G48" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6526,10 +6604,10 @@
         <v>1281</v>
       </c>
       <c r="F49" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G49" t="s">
-        <v>1654</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6549,10 +6627,10 @@
         <v>1277</v>
       </c>
       <c r="F50" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G50" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6572,10 +6650,10 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G51" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6595,10 +6673,10 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G52" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6618,10 +6696,10 @@
         <v>1276</v>
       </c>
       <c r="F53" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G53" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6641,10 +6719,10 @@
         <v>1276</v>
       </c>
       <c r="F54" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G54" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6664,10 +6742,10 @@
         <v>1289</v>
       </c>
       <c r="F55" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G55" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6687,10 +6765,10 @@
         <v>1290</v>
       </c>
       <c r="F56" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G56" t="s">
-        <v>1656</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6710,10 +6788,10 @@
         <v>1275</v>
       </c>
       <c r="F57" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="G57" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6733,10 +6811,10 @@
         <v>1278</v>
       </c>
       <c r="F58" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="G58" t="s">
-        <v>1657</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6756,10 +6834,10 @@
         <v>1291</v>
       </c>
       <c r="F59" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G59" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6779,10 +6857,10 @@
         <v>1275</v>
       </c>
       <c r="F60" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G60" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6802,10 +6880,10 @@
         <v>1277</v>
       </c>
       <c r="F61" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G61" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6825,10 +6903,10 @@
         <v>1289</v>
       </c>
       <c r="F62" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G62" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6848,10 +6926,10 @@
         <v>1275</v>
       </c>
       <c r="F63" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G63" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6871,10 +6949,10 @@
         <v>1277</v>
       </c>
       <c r="F64" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G64" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6897,7 +6975,7 @@
         <v>946</v>
       </c>
       <c r="G65" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6920,7 +6998,7 @@
         <v>986</v>
       </c>
       <c r="G66" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6940,10 +7018,10 @@
         <v>1292</v>
       </c>
       <c r="F67" t="s">
-        <v>988</v>
+        <v>1387</v>
       </c>
       <c r="G67" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6963,10 +7041,10 @@
         <v>1293</v>
       </c>
       <c r="F68" t="s">
-        <v>988</v>
+        <v>1388</v>
       </c>
       <c r="G68" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6986,10 +7064,10 @@
         <v>1294</v>
       </c>
       <c r="F69" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="G69" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7009,10 +7087,10 @@
         <v>1277</v>
       </c>
       <c r="F70" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="G70" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7032,10 +7110,10 @@
         <v>1276</v>
       </c>
       <c r="F71" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="G71" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7055,10 +7133,10 @@
         <v>1295</v>
       </c>
       <c r="F72" t="s">
-        <v>932</v>
+        <v>1392</v>
       </c>
       <c r="G72" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -7081,7 +7159,7 @@
         <v>946</v>
       </c>
       <c r="G73" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7101,10 +7179,10 @@
         <v>1283</v>
       </c>
       <c r="F74" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="G74" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -7124,10 +7202,10 @@
         <v>1275</v>
       </c>
       <c r="F75" t="s">
-        <v>984</v>
+        <v>1394</v>
       </c>
       <c r="G75" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7147,10 +7225,10 @@
         <v>1284</v>
       </c>
       <c r="F76" t="s">
-        <v>994</v>
+        <v>1395</v>
       </c>
       <c r="G76" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -7170,10 +7248,10 @@
         <v>1277</v>
       </c>
       <c r="F77" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
       <c r="G77" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7193,10 +7271,10 @@
         <v>1288</v>
       </c>
       <c r="F78" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
       <c r="G78" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -7216,10 +7294,10 @@
         <v>1277</v>
       </c>
       <c r="F79" t="s">
-        <v>1391</v>
+        <v>1398</v>
       </c>
       <c r="G79" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7242,7 +7320,7 @@
         <v>932</v>
       </c>
       <c r="G80" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -7262,10 +7340,10 @@
         <v>1277</v>
       </c>
       <c r="F81" t="s">
-        <v>1392</v>
+        <v>1399</v>
       </c>
       <c r="G81" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7288,7 +7366,7 @@
         <v>1064</v>
       </c>
       <c r="G82" t="s">
-        <v>1657</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -7311,7 +7389,7 @@
         <v>932</v>
       </c>
       <c r="G83" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7331,10 +7409,10 @@
         <v>1277</v>
       </c>
       <c r="F84" t="s">
-        <v>1393</v>
+        <v>1400</v>
       </c>
       <c r="G84" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -7354,10 +7432,10 @@
         <v>1281</v>
       </c>
       <c r="F85" t="s">
-        <v>1394</v>
+        <v>1401</v>
       </c>
       <c r="G85" t="s">
-        <v>1659</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -7377,10 +7455,10 @@
         <v>1277</v>
       </c>
       <c r="F86" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
       <c r="G86" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -7400,10 +7478,10 @@
         <v>1284</v>
       </c>
       <c r="F87" t="s">
-        <v>1396</v>
+        <v>1403</v>
       </c>
       <c r="G87" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -7423,10 +7501,10 @@
         <v>1283</v>
       </c>
       <c r="F88" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
       <c r="G88" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -7446,10 +7524,10 @@
         <v>1277</v>
       </c>
       <c r="F89" t="s">
-        <v>1398</v>
+        <v>1405</v>
       </c>
       <c r="G89" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -7469,10 +7547,10 @@
         <v>1297</v>
       </c>
       <c r="F90" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
       <c r="G90" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -7492,10 +7570,10 @@
         <v>1285</v>
       </c>
       <c r="F91" t="s">
-        <v>1400</v>
+        <v>1407</v>
       </c>
       <c r="G91" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -7515,10 +7593,10 @@
         <v>1298</v>
       </c>
       <c r="F92" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="G92" t="s">
-        <v>1660</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7538,10 +7616,10 @@
         <v>1276</v>
       </c>
       <c r="F93" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
       <c r="G93" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7561,10 +7639,10 @@
         <v>1288</v>
       </c>
       <c r="F94" t="s">
-        <v>1403</v>
+        <v>1410</v>
       </c>
       <c r="G94" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7584,10 +7662,10 @@
         <v>1299</v>
       </c>
       <c r="F95" t="s">
-        <v>1404</v>
+        <v>1411</v>
       </c>
       <c r="G95" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7607,10 +7685,10 @@
         <v>1277</v>
       </c>
       <c r="F96" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
       <c r="G96" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7630,10 +7708,10 @@
         <v>1276</v>
       </c>
       <c r="F97" t="s">
-        <v>1406</v>
+        <v>1413</v>
       </c>
       <c r="G97" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7653,10 +7731,10 @@
         <v>1275</v>
       </c>
       <c r="F98" t="s">
-        <v>1407</v>
+        <v>1414</v>
       </c>
       <c r="G98" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7676,10 +7754,10 @@
         <v>1278</v>
       </c>
       <c r="F99" t="s">
-        <v>1104</v>
+        <v>1415</v>
       </c>
       <c r="G99" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7699,10 +7777,10 @@
         <v>1278</v>
       </c>
       <c r="F100" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="G100" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7722,10 +7800,10 @@
         <v>1277</v>
       </c>
       <c r="F101" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="G101" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7745,10 +7823,10 @@
         <v>1284</v>
       </c>
       <c r="F102" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="G102" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7771,7 +7849,7 @@
         <v>967</v>
       </c>
       <c r="G103" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7791,10 +7869,10 @@
         <v>1276</v>
       </c>
       <c r="F104" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="G104" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7817,7 +7895,7 @@
         <v>930</v>
       </c>
       <c r="G105" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7837,10 +7915,10 @@
         <v>1285</v>
       </c>
       <c r="F106" t="s">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="G106" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7860,10 +7938,10 @@
         <v>1275</v>
       </c>
       <c r="F107" t="s">
-        <v>1413</v>
+        <v>1421</v>
       </c>
       <c r="G107" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7883,10 +7961,10 @@
         <v>1295</v>
       </c>
       <c r="F108" t="s">
-        <v>1414</v>
+        <v>1422</v>
       </c>
       <c r="G108" t="s">
-        <v>1661</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7906,10 +7984,10 @@
         <v>1297</v>
       </c>
       <c r="F109" t="s">
-        <v>1415</v>
+        <v>1423</v>
       </c>
       <c r="G109" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7932,7 +8010,7 @@
         <v>1024</v>
       </c>
       <c r="G110" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7955,7 +8033,7 @@
         <v>932</v>
       </c>
       <c r="G111" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7975,10 +8053,10 @@
         <v>1276</v>
       </c>
       <c r="F112" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="G112" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -7998,10 +8076,10 @@
         <v>1284</v>
       </c>
       <c r="F113" t="s">
-        <v>1064</v>
+        <v>1425</v>
       </c>
       <c r="G113" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8024,7 +8102,7 @@
         <v>946</v>
       </c>
       <c r="G114" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8044,10 +8122,10 @@
         <v>1295</v>
       </c>
       <c r="F115" t="s">
-        <v>1414</v>
+        <v>1422</v>
       </c>
       <c r="G115" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8067,10 +8145,10 @@
         <v>1276</v>
       </c>
       <c r="F116" t="s">
-        <v>1417</v>
+        <v>1426</v>
       </c>
       <c r="G116" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8090,10 +8168,10 @@
         <v>1277</v>
       </c>
       <c r="F117" t="s">
-        <v>1418</v>
+        <v>1427</v>
       </c>
       <c r="G117" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8113,10 +8191,10 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1419</v>
+        <v>1428</v>
       </c>
       <c r="G118" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -8136,10 +8214,10 @@
         <v>1277</v>
       </c>
       <c r="F119" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="G119" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8159,10 +8237,10 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="G120" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8182,10 +8260,10 @@
         <v>1300</v>
       </c>
       <c r="F121" t="s">
-        <v>1422</v>
+        <v>1431</v>
       </c>
       <c r="G121" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8208,7 +8286,7 @@
         <v>930</v>
       </c>
       <c r="G122" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8228,10 +8306,10 @@
         <v>1277</v>
       </c>
       <c r="F123" t="s">
-        <v>1423</v>
+        <v>1432</v>
       </c>
       <c r="G123" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8254,7 +8332,7 @@
         <v>1034</v>
       </c>
       <c r="G124" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8274,10 +8352,10 @@
         <v>1277</v>
       </c>
       <c r="F125" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="G125" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8297,10 +8375,10 @@
         <v>1277</v>
       </c>
       <c r="F126" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
       <c r="G126" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8320,10 +8398,10 @@
         <v>1276</v>
       </c>
       <c r="F127" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
       <c r="G127" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8346,7 +8424,7 @@
         <v>946</v>
       </c>
       <c r="G128" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8366,10 +8444,10 @@
         <v>1276</v>
       </c>
       <c r="F129" t="s">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="G129" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8389,10 +8467,10 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1428</v>
+        <v>1437</v>
       </c>
       <c r="G130" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8412,10 +8490,10 @@
         <v>1297</v>
       </c>
       <c r="F131" t="s">
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="G131" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8438,7 +8516,7 @@
         <v>1239</v>
       </c>
       <c r="G132" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8461,7 +8539,7 @@
         <v>932</v>
       </c>
       <c r="G133" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8481,10 +8559,10 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1430</v>
+        <v>1439</v>
       </c>
       <c r="G134" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8504,10 +8582,10 @@
         <v>1297</v>
       </c>
       <c r="F135" t="s">
-        <v>1431</v>
+        <v>1440</v>
       </c>
       <c r="G135" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8527,10 +8605,10 @@
         <v>1277</v>
       </c>
       <c r="F136" t="s">
-        <v>1045</v>
+        <v>1441</v>
       </c>
       <c r="G136" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8550,10 +8628,10 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1432</v>
+        <v>1442</v>
       </c>
       <c r="G137" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8576,7 +8654,7 @@
         <v>1024</v>
       </c>
       <c r="G138" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8596,10 +8674,10 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1433</v>
+        <v>1443</v>
       </c>
       <c r="G139" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8619,10 +8697,10 @@
         <v>1281</v>
       </c>
       <c r="F140" t="s">
-        <v>1434</v>
+        <v>1444</v>
       </c>
       <c r="G140" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8642,10 +8720,10 @@
         <v>1277</v>
       </c>
       <c r="F141" t="s">
-        <v>1049</v>
+        <v>1445</v>
       </c>
       <c r="G141" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8665,10 +8743,10 @@
         <v>1277</v>
       </c>
       <c r="F142" t="s">
-        <v>1435</v>
+        <v>1446</v>
       </c>
       <c r="G142" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8688,10 +8766,10 @@
         <v>1283</v>
       </c>
       <c r="F143" t="s">
-        <v>1436</v>
+        <v>1447</v>
       </c>
       <c r="G143" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8711,10 +8789,10 @@
         <v>1276</v>
       </c>
       <c r="F144" t="s">
-        <v>1437</v>
+        <v>1448</v>
       </c>
       <c r="G144" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8734,10 +8812,10 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="G145" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8757,10 +8835,10 @@
         <v>1301</v>
       </c>
       <c r="F146" t="s">
-        <v>1439</v>
+        <v>1450</v>
       </c>
       <c r="G146" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8780,10 +8858,10 @@
         <v>1275</v>
       </c>
       <c r="F147" t="s">
-        <v>930</v>
+        <v>1451</v>
       </c>
       <c r="G147" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8803,10 +8881,10 @@
         <v>1277</v>
       </c>
       <c r="F148" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="G148" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8826,10 +8904,10 @@
         <v>1276</v>
       </c>
       <c r="F149" t="s">
-        <v>1441</v>
+        <v>1453</v>
       </c>
       <c r="G149" t="s">
-        <v>1662</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8849,10 +8927,10 @@
         <v>1275</v>
       </c>
       <c r="F150" t="s">
-        <v>1442</v>
+        <v>1454</v>
       </c>
       <c r="G150" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8872,10 +8950,10 @@
         <v>1302</v>
       </c>
       <c r="F151" t="s">
-        <v>1443</v>
+        <v>1455</v>
       </c>
       <c r="G151" t="s">
-        <v>1663</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8895,10 +8973,10 @@
         <v>1276</v>
       </c>
       <c r="F152" t="s">
-        <v>1444</v>
+        <v>1456</v>
       </c>
       <c r="G152" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -8918,10 +8996,10 @@
         <v>1303</v>
       </c>
       <c r="F153" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
       <c r="G153" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8941,10 +9019,10 @@
         <v>1277</v>
       </c>
       <c r="F154" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
       <c r="G154" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8964,10 +9042,10 @@
         <v>1277</v>
       </c>
       <c r="F155" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
       <c r="G155" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -8990,7 +9068,7 @@
         <v>1061</v>
       </c>
       <c r="G156" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9010,10 +9088,10 @@
         <v>1277</v>
       </c>
       <c r="F157" t="s">
-        <v>1448</v>
+        <v>1460</v>
       </c>
       <c r="G157" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -9033,10 +9111,10 @@
         <v>1284</v>
       </c>
       <c r="F158" t="s">
-        <v>1449</v>
+        <v>1461</v>
       </c>
       <c r="G158" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9059,7 +9137,7 @@
         <v>1064</v>
       </c>
       <c r="G159" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9082,7 +9160,7 @@
         <v>1094</v>
       </c>
       <c r="G160" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9105,7 +9183,7 @@
         <v>1061</v>
       </c>
       <c r="G161" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9128,7 +9206,7 @@
         <v>1061</v>
       </c>
       <c r="G162" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9148,10 +9226,10 @@
         <v>1277</v>
       </c>
       <c r="F163" t="s">
-        <v>975</v>
+        <v>1462</v>
       </c>
       <c r="G163" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -9174,7 +9252,7 @@
         <v>995</v>
       </c>
       <c r="G164" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -9194,10 +9272,10 @@
         <v>1285</v>
       </c>
       <c r="F165" t="s">
-        <v>1450</v>
+        <v>1463</v>
       </c>
       <c r="G165" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9217,10 +9295,10 @@
         <v>1277</v>
       </c>
       <c r="F166" t="s">
-        <v>1451</v>
+        <v>1464</v>
       </c>
       <c r="G166" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9240,10 +9318,10 @@
         <v>1278</v>
       </c>
       <c r="F167" t="s">
-        <v>1452</v>
+        <v>1465</v>
       </c>
       <c r="G167" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9263,10 +9341,10 @@
         <v>1304</v>
       </c>
       <c r="F168" t="s">
-        <v>1453</v>
+        <v>1466</v>
       </c>
       <c r="G168" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9289,7 +9367,7 @@
         <v>1064</v>
       </c>
       <c r="G169" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9309,10 +9387,10 @@
         <v>1305</v>
       </c>
       <c r="F170" t="s">
-        <v>1342</v>
+        <v>1467</v>
       </c>
       <c r="G170" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9332,10 +9410,10 @@
         <v>1275</v>
       </c>
       <c r="F171" t="s">
-        <v>1454</v>
+        <v>1468</v>
       </c>
       <c r="G171" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9355,10 +9433,10 @@
         <v>1276</v>
       </c>
       <c r="F172" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="G172" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9378,10 +9456,10 @@
         <v>1295</v>
       </c>
       <c r="F173" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
       <c r="G173" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9401,10 +9479,10 @@
         <v>1276</v>
       </c>
       <c r="F174" t="s">
-        <v>1457</v>
+        <v>1471</v>
       </c>
       <c r="G174" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -9424,10 +9502,10 @@
         <v>1306</v>
       </c>
       <c r="F175" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
       <c r="G175" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9447,10 +9525,10 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1344</v>
+        <v>1472</v>
       </c>
       <c r="G176" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -9470,10 +9548,10 @@
         <v>1283</v>
       </c>
       <c r="F177" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
       <c r="G177" t="s">
-        <v>1653</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -9493,10 +9571,10 @@
         <v>1307</v>
       </c>
       <c r="F178" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
       <c r="G178" t="s">
-        <v>1664</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -9516,10 +9594,10 @@
         <v>1308</v>
       </c>
       <c r="F179" t="s">
-        <v>1458</v>
+        <v>1473</v>
       </c>
       <c r="G179" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -9539,10 +9617,10 @@
         <v>1292</v>
       </c>
       <c r="F180" t="s">
-        <v>1459</v>
+        <v>1474</v>
       </c>
       <c r="G180" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -9562,10 +9640,10 @@
         <v>1276</v>
       </c>
       <c r="F181" t="s">
-        <v>1460</v>
+        <v>1475</v>
       </c>
       <c r="G181" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -9585,10 +9663,10 @@
         <v>1277</v>
       </c>
       <c r="F182" t="s">
-        <v>1461</v>
+        <v>1476</v>
       </c>
       <c r="G182" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9611,7 +9689,7 @@
         <v>1085</v>
       </c>
       <c r="G183" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -9631,10 +9709,10 @@
         <v>1277</v>
       </c>
       <c r="F184" t="s">
-        <v>1462</v>
+        <v>1477</v>
       </c>
       <c r="G184" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9654,10 +9732,10 @@
         <v>1309</v>
       </c>
       <c r="F185" t="s">
-        <v>1463</v>
+        <v>1478</v>
       </c>
       <c r="G185" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9680,7 +9758,7 @@
         <v>1088</v>
       </c>
       <c r="G186" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -9703,7 +9781,7 @@
         <v>932</v>
       </c>
       <c r="G187" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -9726,7 +9804,7 @@
         <v>988</v>
       </c>
       <c r="G188" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -9749,7 +9827,7 @@
         <v>1094</v>
       </c>
       <c r="G189" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9772,7 +9850,7 @@
         <v>932</v>
       </c>
       <c r="G190" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -9792,10 +9870,10 @@
         <v>1276</v>
       </c>
       <c r="F191" t="s">
-        <v>1464</v>
+        <v>1479</v>
       </c>
       <c r="G191" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -9815,10 +9893,10 @@
         <v>1310</v>
       </c>
       <c r="F192" t="s">
-        <v>1465</v>
+        <v>1480</v>
       </c>
       <c r="G192" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -9838,10 +9916,10 @@
         <v>1283</v>
       </c>
       <c r="F193" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
       <c r="G193" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -9861,10 +9939,10 @@
         <v>1277</v>
       </c>
       <c r="F194" t="s">
-        <v>1466</v>
+        <v>1481</v>
       </c>
       <c r="G194" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -9887,7 +9965,7 @@
         <v>967</v>
       </c>
       <c r="G195" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -9910,7 +9988,7 @@
         <v>1094</v>
       </c>
       <c r="G196" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -9933,7 +10011,7 @@
         <v>995</v>
       </c>
       <c r="G197" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -9953,7 +10031,7 @@
         <v>1296</v>
       </c>
       <c r="G198" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -9973,10 +10051,10 @@
         <v>1277</v>
       </c>
       <c r="F199" t="s">
-        <v>1467</v>
+        <v>1482</v>
       </c>
       <c r="G199" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -9999,7 +10077,7 @@
         <v>1045</v>
       </c>
       <c r="G200" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -10019,10 +10097,10 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1468</v>
+        <v>1483</v>
       </c>
       <c r="G201" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -10042,10 +10120,10 @@
         <v>1308</v>
       </c>
       <c r="F202" t="s">
-        <v>1469</v>
+        <v>1484</v>
       </c>
       <c r="G202" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -10068,7 +10146,7 @@
         <v>1088</v>
       </c>
       <c r="G203" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -10088,10 +10166,10 @@
         <v>1311</v>
       </c>
       <c r="F204" t="s">
-        <v>1470</v>
+        <v>1485</v>
       </c>
       <c r="G204" t="s">
-        <v>1661</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -10111,10 +10189,10 @@
         <v>1278</v>
       </c>
       <c r="F205" t="s">
-        <v>1471</v>
+        <v>1486</v>
       </c>
       <c r="G205" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -10134,10 +10212,10 @@
         <v>1275</v>
       </c>
       <c r="F206" t="s">
-        <v>1472</v>
+        <v>1487</v>
       </c>
       <c r="G206" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -10157,10 +10235,10 @@
         <v>1275</v>
       </c>
       <c r="F207" t="s">
-        <v>1473</v>
+        <v>1488</v>
       </c>
       <c r="G207" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -10180,10 +10258,10 @@
         <v>1277</v>
       </c>
       <c r="F208" t="s">
-        <v>1474</v>
+        <v>1489</v>
       </c>
       <c r="G208" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -10203,10 +10281,10 @@
         <v>1276</v>
       </c>
       <c r="F209" t="s">
-        <v>1475</v>
+        <v>1490</v>
       </c>
       <c r="G209" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -10226,10 +10304,10 @@
         <v>1277</v>
       </c>
       <c r="F210" t="s">
-        <v>1448</v>
+        <v>1491</v>
       </c>
       <c r="G210" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -10249,10 +10327,10 @@
         <v>1310</v>
       </c>
       <c r="F211" t="s">
-        <v>1476</v>
+        <v>1492</v>
       </c>
       <c r="G211" t="s">
-        <v>1665</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -10272,10 +10350,10 @@
         <v>1277</v>
       </c>
       <c r="F212" t="s">
-        <v>1477</v>
+        <v>1493</v>
       </c>
       <c r="G212" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -10298,7 +10376,7 @@
         <v>1105</v>
       </c>
       <c r="G213" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -10318,10 +10396,10 @@
         <v>1295</v>
       </c>
       <c r="F214" t="s">
-        <v>1478</v>
+        <v>1494</v>
       </c>
       <c r="G214" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -10341,10 +10419,10 @@
         <v>1277</v>
       </c>
       <c r="F215" t="s">
-        <v>1479</v>
+        <v>1495</v>
       </c>
       <c r="G215" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -10364,10 +10442,10 @@
         <v>1277</v>
       </c>
       <c r="F216" t="s">
-        <v>1480</v>
+        <v>1496</v>
       </c>
       <c r="G216" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -10387,10 +10465,10 @@
         <v>1310</v>
       </c>
       <c r="F217" t="s">
-        <v>1481</v>
+        <v>1497</v>
       </c>
       <c r="G217" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -10410,10 +10488,10 @@
         <v>1280</v>
       </c>
       <c r="F218" t="s">
-        <v>1482</v>
+        <v>1498</v>
       </c>
       <c r="G218" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -10433,10 +10511,10 @@
         <v>1284</v>
       </c>
       <c r="F219" t="s">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="G219" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -10456,10 +10534,10 @@
         <v>1309</v>
       </c>
       <c r="F220" t="s">
-        <v>1484</v>
+        <v>1500</v>
       </c>
       <c r="G220" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -10479,10 +10557,10 @@
         <v>1312</v>
       </c>
       <c r="F221" t="s">
-        <v>1485</v>
+        <v>1501</v>
       </c>
       <c r="G221" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -10502,10 +10580,10 @@
         <v>1275</v>
       </c>
       <c r="F222" t="s">
-        <v>1486</v>
+        <v>1502</v>
       </c>
       <c r="G222" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -10525,10 +10603,10 @@
         <v>1310</v>
       </c>
       <c r="F223" t="s">
-        <v>1487</v>
+        <v>1503</v>
       </c>
       <c r="G223" t="s">
-        <v>1666</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -10548,10 +10626,10 @@
         <v>1313</v>
       </c>
       <c r="F224" t="s">
-        <v>1488</v>
+        <v>1504</v>
       </c>
       <c r="G224" t="s">
-        <v>1667</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -10574,7 +10652,7 @@
         <v>1088</v>
       </c>
       <c r="G225" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -10594,10 +10672,10 @@
         <v>1275</v>
       </c>
       <c r="F226" t="s">
-        <v>930</v>
+        <v>1451</v>
       </c>
       <c r="G226" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -10617,10 +10695,10 @@
         <v>1284</v>
       </c>
       <c r="F227" t="s">
-        <v>1088</v>
+        <v>1505</v>
       </c>
       <c r="G227" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -10640,10 +10718,10 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1489</v>
+        <v>1506</v>
       </c>
       <c r="G228" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -10666,7 +10744,7 @@
         <v>946</v>
       </c>
       <c r="G229" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -10686,10 +10764,10 @@
         <v>1293</v>
       </c>
       <c r="F230" t="s">
-        <v>1408</v>
+        <v>1507</v>
       </c>
       <c r="G230" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -10709,10 +10787,10 @@
         <v>1275</v>
       </c>
       <c r="F231" t="s">
-        <v>946</v>
+        <v>1508</v>
       </c>
       <c r="G231" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -10732,10 +10810,10 @@
         <v>1275</v>
       </c>
       <c r="F232" t="s">
-        <v>1490</v>
+        <v>1509</v>
       </c>
       <c r="G232" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -10755,10 +10833,10 @@
         <v>1314</v>
       </c>
       <c r="F233" t="s">
-        <v>1491</v>
+        <v>1510</v>
       </c>
       <c r="G233" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -10778,10 +10856,10 @@
         <v>1284</v>
       </c>
       <c r="F234" t="s">
-        <v>1492</v>
+        <v>1511</v>
       </c>
       <c r="G234" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10801,10 +10879,10 @@
         <v>1299</v>
       </c>
       <c r="F235" t="s">
-        <v>1493</v>
+        <v>1512</v>
       </c>
       <c r="G235" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10824,10 +10902,10 @@
         <v>1284</v>
       </c>
       <c r="F236" t="s">
-        <v>1494</v>
+        <v>1513</v>
       </c>
       <c r="G236" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10847,10 +10925,10 @@
         <v>1284</v>
       </c>
       <c r="F237" t="s">
-        <v>930</v>
+        <v>1514</v>
       </c>
       <c r="G237" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10870,10 +10948,10 @@
         <v>1315</v>
       </c>
       <c r="F238" t="s">
-        <v>1495</v>
+        <v>1515</v>
       </c>
       <c r="G238" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10893,10 +10971,10 @@
         <v>1284</v>
       </c>
       <c r="F239" t="s">
-        <v>1496</v>
+        <v>1516</v>
       </c>
       <c r="G239" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10916,10 +10994,10 @@
         <v>1316</v>
       </c>
       <c r="F240" t="s">
-        <v>1497</v>
+        <v>1517</v>
       </c>
       <c r="G240" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10939,10 +11017,10 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="G241" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -10962,10 +11040,10 @@
         <v>1317</v>
       </c>
       <c r="F242" t="s">
-        <v>1499</v>
+        <v>1519</v>
       </c>
       <c r="G242" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10988,7 +11066,7 @@
         <v>946</v>
       </c>
       <c r="G243" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -11011,7 +11089,7 @@
         <v>930</v>
       </c>
       <c r="G244" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -11034,7 +11112,7 @@
         <v>946</v>
       </c>
       <c r="G245" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -11057,7 +11135,7 @@
         <v>930</v>
       </c>
       <c r="G246" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -11076,8 +11154,11 @@
       <c r="E247" t="s">
         <v>1309</v>
       </c>
+      <c r="F247" t="s">
+        <v>1520</v>
+      </c>
       <c r="G247" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -11097,10 +11178,10 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1500</v>
+        <v>1521</v>
       </c>
       <c r="G248" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -11120,10 +11201,10 @@
         <v>1304</v>
       </c>
       <c r="F249" t="s">
-        <v>1501</v>
+        <v>1522</v>
       </c>
       <c r="G249" t="s">
-        <v>1649</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -11143,10 +11224,10 @@
         <v>1278</v>
       </c>
       <c r="F250" t="s">
-        <v>958</v>
+        <v>1523</v>
       </c>
       <c r="G250" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -11166,10 +11247,10 @@
         <v>1299</v>
       </c>
       <c r="F251" t="s">
-        <v>1502</v>
+        <v>1524</v>
       </c>
       <c r="G251" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -11192,7 +11273,7 @@
         <v>1131</v>
       </c>
       <c r="G252" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -11212,10 +11293,10 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1503</v>
+        <v>946</v>
       </c>
       <c r="G253" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11238,7 +11319,7 @@
         <v>946</v>
       </c>
       <c r="G254" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -11258,10 +11339,10 @@
         <v>1275</v>
       </c>
       <c r="F255" t="s">
-        <v>1504</v>
+        <v>1525</v>
       </c>
       <c r="G255" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -11281,10 +11362,10 @@
         <v>1278</v>
       </c>
       <c r="F256" t="s">
-        <v>1505</v>
+        <v>1526</v>
       </c>
       <c r="G256" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -11304,10 +11385,10 @@
         <v>1285</v>
       </c>
       <c r="F257" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -11327,10 +11408,10 @@
         <v>1278</v>
       </c>
       <c r="F258" t="s">
-        <v>1506</v>
+        <v>1527</v>
       </c>
       <c r="G258" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -11350,10 +11431,10 @@
         <v>1284</v>
       </c>
       <c r="F259" t="s">
-        <v>1507</v>
+        <v>1528</v>
       </c>
       <c r="G259" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -11373,10 +11454,10 @@
         <v>1278</v>
       </c>
       <c r="F260" t="s">
-        <v>1505</v>
+        <v>1526</v>
       </c>
       <c r="G260" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -11399,7 +11480,7 @@
         <v>1137</v>
       </c>
       <c r="G261" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -11422,7 +11503,7 @@
         <v>967</v>
       </c>
       <c r="G262" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11442,10 +11523,10 @@
         <v>1299</v>
       </c>
       <c r="F263" t="s">
-        <v>1508</v>
+        <v>1529</v>
       </c>
       <c r="G263" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -11468,7 +11549,7 @@
         <v>1159</v>
       </c>
       <c r="G264" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -11488,10 +11569,10 @@
         <v>1310</v>
       </c>
       <c r="F265" t="s">
-        <v>1509</v>
+        <v>1530</v>
       </c>
       <c r="G265" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -11511,10 +11592,10 @@
         <v>1293</v>
       </c>
       <c r="F266" t="s">
-        <v>1510</v>
+        <v>1531</v>
       </c>
       <c r="G266" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -11534,10 +11615,10 @@
         <v>1278</v>
       </c>
       <c r="F267" t="s">
-        <v>1511</v>
+        <v>1532</v>
       </c>
       <c r="G267" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -11557,10 +11638,10 @@
         <v>1285</v>
       </c>
       <c r="F268" t="s">
-        <v>1512</v>
+        <v>1533</v>
       </c>
       <c r="G268" t="s">
-        <v>1654</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -11580,10 +11661,10 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1513</v>
+        <v>1534</v>
       </c>
       <c r="G269" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -11603,10 +11684,10 @@
         <v>1275</v>
       </c>
       <c r="F270" t="s">
-        <v>1514</v>
+        <v>1535</v>
       </c>
       <c r="G270" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -11626,10 +11707,10 @@
         <v>1303</v>
       </c>
       <c r="F271" t="s">
-        <v>1515</v>
+        <v>1536</v>
       </c>
       <c r="G271" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -11649,10 +11730,10 @@
         <v>1285</v>
       </c>
       <c r="F272" t="s">
-        <v>1516</v>
+        <v>1537</v>
       </c>
       <c r="G272" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -11672,10 +11753,10 @@
         <v>1278</v>
       </c>
       <c r="F273" t="s">
-        <v>1517</v>
+        <v>1538</v>
       </c>
       <c r="G273" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11695,10 +11776,10 @@
         <v>1284</v>
       </c>
       <c r="F274" t="s">
-        <v>1518</v>
+        <v>1539</v>
       </c>
       <c r="G274" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -11718,10 +11799,10 @@
         <v>1318</v>
       </c>
       <c r="F275" t="s">
-        <v>1519</v>
+        <v>1540</v>
       </c>
       <c r="G275" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -11741,10 +11822,10 @@
         <v>1275</v>
       </c>
       <c r="F276" t="s">
-        <v>1520</v>
+        <v>1541</v>
       </c>
       <c r="G276" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -11764,10 +11845,10 @@
         <v>1275</v>
       </c>
       <c r="F277" t="s">
-        <v>1521</v>
+        <v>1542</v>
       </c>
       <c r="G277" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -11787,10 +11868,10 @@
         <v>1275</v>
       </c>
       <c r="F278" t="s">
-        <v>1522</v>
+        <v>1478</v>
       </c>
       <c r="G278" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11809,8 +11890,11 @@
       <c r="E279" t="s">
         <v>1275</v>
       </c>
+      <c r="F279" t="s">
+        <v>1021</v>
+      </c>
       <c r="G279" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11830,10 +11914,10 @@
         <v>1275</v>
       </c>
       <c r="F280" t="s">
-        <v>1523</v>
+        <v>1543</v>
       </c>
       <c r="G280" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11853,10 +11937,10 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1524</v>
+        <v>1544</v>
       </c>
       <c r="G281" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11876,10 +11960,10 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1525</v>
+        <v>1545</v>
       </c>
       <c r="G282" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11902,7 +11986,7 @@
         <v>1210</v>
       </c>
       <c r="G283" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -11922,10 +12006,10 @@
         <v>1319</v>
       </c>
       <c r="F284" t="s">
-        <v>1526</v>
+        <v>1546</v>
       </c>
       <c r="G284" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -11945,10 +12029,10 @@
         <v>1275</v>
       </c>
       <c r="F285" t="s">
-        <v>1527</v>
+        <v>1547</v>
       </c>
       <c r="G285" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -11968,10 +12052,10 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1528</v>
+        <v>1548</v>
       </c>
       <c r="G286" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -11994,7 +12078,7 @@
         <v>932</v>
       </c>
       <c r="G287" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -12014,10 +12098,10 @@
         <v>1275</v>
       </c>
       <c r="F288" t="s">
-        <v>1529</v>
+        <v>1549</v>
       </c>
       <c r="G288" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -12037,10 +12121,10 @@
         <v>1284</v>
       </c>
       <c r="F289" t="s">
-        <v>1530</v>
+        <v>1550</v>
       </c>
       <c r="G289" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -12060,10 +12144,10 @@
         <v>1320</v>
       </c>
       <c r="F290" t="s">
-        <v>1531</v>
+        <v>1551</v>
       </c>
       <c r="G290" t="s">
-        <v>1654</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -12083,10 +12167,10 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1532</v>
+        <v>1552</v>
       </c>
       <c r="G291" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -12106,10 +12190,10 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1533</v>
+        <v>1553</v>
       </c>
       <c r="G292" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -12129,10 +12213,10 @@
         <v>1297</v>
       </c>
       <c r="F293" t="s">
-        <v>1198</v>
+        <v>1554</v>
       </c>
       <c r="G293" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -12155,7 +12239,7 @@
         <v>1088</v>
       </c>
       <c r="G294" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -12175,10 +12259,10 @@
         <v>1275</v>
       </c>
       <c r="F295" t="s">
-        <v>946</v>
+        <v>1555</v>
       </c>
       <c r="G295" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -12201,7 +12285,7 @@
         <v>946</v>
       </c>
       <c r="G296" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -12221,10 +12305,10 @@
         <v>1284</v>
       </c>
       <c r="F297" t="s">
-        <v>1534</v>
+        <v>1556</v>
       </c>
       <c r="G297" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -12244,10 +12328,10 @@
         <v>1293</v>
       </c>
       <c r="F298" t="s">
-        <v>1535</v>
+        <v>1557</v>
       </c>
       <c r="G298" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -12270,7 +12354,7 @@
         <v>946</v>
       </c>
       <c r="G299" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -12289,8 +12373,11 @@
       <c r="E300" t="s">
         <v>1275</v>
       </c>
+      <c r="F300" t="s">
+        <v>950</v>
+      </c>
       <c r="G300" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -12310,10 +12397,10 @@
         <v>1284</v>
       </c>
       <c r="F301" t="s">
-        <v>1536</v>
+        <v>1558</v>
       </c>
       <c r="G301" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -12333,10 +12420,10 @@
         <v>1278</v>
       </c>
       <c r="F302" t="s">
-        <v>1537</v>
+        <v>1559</v>
       </c>
       <c r="G302" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -12356,10 +12443,10 @@
         <v>1275</v>
       </c>
       <c r="F303" t="s">
-        <v>1538</v>
+        <v>1560</v>
       </c>
       <c r="G303" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -12382,7 +12469,7 @@
         <v>999</v>
       </c>
       <c r="G304" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -12405,7 +12492,7 @@
         <v>932</v>
       </c>
       <c r="G305" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -12425,10 +12512,10 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1539</v>
+        <v>1561</v>
       </c>
       <c r="G306" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -12451,7 +12538,7 @@
         <v>946</v>
       </c>
       <c r="G307" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -12471,10 +12558,10 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1540</v>
+        <v>1562</v>
       </c>
       <c r="G308" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -12494,10 +12581,10 @@
         <v>1299</v>
       </c>
       <c r="F309" t="s">
-        <v>1541</v>
+        <v>1563</v>
       </c>
       <c r="G309" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -12520,7 +12607,7 @@
         <v>1088</v>
       </c>
       <c r="G310" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -12540,10 +12627,10 @@
         <v>1284</v>
       </c>
       <c r="F311" t="s">
-        <v>1542</v>
+        <v>1564</v>
       </c>
       <c r="G311" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -12566,7 +12653,7 @@
         <v>1088</v>
       </c>
       <c r="G312" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -12586,10 +12673,10 @@
         <v>1275</v>
       </c>
       <c r="F313" t="s">
-        <v>1543</v>
+        <v>946</v>
       </c>
       <c r="G313" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -12612,7 +12699,7 @@
         <v>946</v>
       </c>
       <c r="G314" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -12632,10 +12719,10 @@
         <v>1293</v>
       </c>
       <c r="F315" t="s">
-        <v>1544</v>
+        <v>1565</v>
       </c>
       <c r="G315" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12655,10 +12742,10 @@
         <v>1275</v>
       </c>
       <c r="F316" t="s">
-        <v>1545</v>
+        <v>1566</v>
       </c>
       <c r="G316" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12681,7 +12768,7 @@
         <v>946</v>
       </c>
       <c r="G317" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12704,7 +12791,7 @@
         <v>932</v>
       </c>
       <c r="G318" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -12723,8 +12810,11 @@
       <c r="E319" t="s">
         <v>1284</v>
       </c>
+      <c r="F319" t="s">
+        <v>1170</v>
+      </c>
       <c r="G319" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12747,7 +12837,7 @@
         <v>1088</v>
       </c>
       <c r="G320" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12767,10 +12857,10 @@
         <v>1314</v>
       </c>
       <c r="F321" t="s">
-        <v>1546</v>
+        <v>1567</v>
       </c>
       <c r="G321" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12790,10 +12880,10 @@
         <v>1284</v>
       </c>
       <c r="F322" t="s">
-        <v>1547</v>
+        <v>1568</v>
       </c>
       <c r="G322" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12813,10 +12903,10 @@
         <v>1309</v>
       </c>
       <c r="F323" t="s">
-        <v>1548</v>
+        <v>1569</v>
       </c>
       <c r="G323" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12836,10 +12926,10 @@
         <v>1278</v>
       </c>
       <c r="F324" t="s">
-        <v>1549</v>
+        <v>1570</v>
       </c>
       <c r="G324" t="s">
-        <v>1653</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12862,7 +12952,7 @@
         <v>946</v>
       </c>
       <c r="G325" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12885,7 +12975,7 @@
         <v>1088</v>
       </c>
       <c r="G326" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12905,10 +12995,10 @@
         <v>1275</v>
       </c>
       <c r="F327" t="s">
-        <v>1550</v>
+        <v>1571</v>
       </c>
       <c r="G327" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12928,10 +13018,10 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1551</v>
+        <v>1572</v>
       </c>
       <c r="G328" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -12951,10 +13041,10 @@
         <v>1322</v>
       </c>
       <c r="F329" t="s">
-        <v>1552</v>
+        <v>1573</v>
       </c>
       <c r="G329" t="s">
-        <v>1668</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12974,10 +13064,10 @@
         <v>1284</v>
       </c>
       <c r="F330" t="s">
-        <v>1553</v>
+        <v>1574</v>
       </c>
       <c r="G330" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -12997,10 +13087,10 @@
         <v>1296</v>
       </c>
       <c r="F331" t="s">
-        <v>1554</v>
+        <v>1575</v>
       </c>
       <c r="G331" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -13020,10 +13110,10 @@
         <v>1284</v>
       </c>
       <c r="F332" t="s">
-        <v>1555</v>
+        <v>1576</v>
       </c>
       <c r="G332" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -13043,10 +13133,10 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>930</v>
+        <v>1451</v>
       </c>
       <c r="G333" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -13066,10 +13156,10 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1179</v>
+        <v>1577</v>
       </c>
       <c r="G334" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -13089,10 +13179,10 @@
         <v>1321</v>
       </c>
       <c r="F335" t="s">
-        <v>1556</v>
+        <v>1578</v>
       </c>
       <c r="G335" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13112,10 +13202,10 @@
         <v>1310</v>
       </c>
       <c r="F336" t="s">
-        <v>1557</v>
+        <v>1579</v>
       </c>
       <c r="G336" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -13135,10 +13225,10 @@
         <v>1310</v>
       </c>
       <c r="F337" t="s">
-        <v>1558</v>
+        <v>1580</v>
       </c>
       <c r="G337" t="s">
-        <v>1653</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -13158,10 +13248,10 @@
         <v>1296</v>
       </c>
       <c r="F338" t="s">
-        <v>1559</v>
+        <v>1581</v>
       </c>
       <c r="G338" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -13184,7 +13274,7 @@
         <v>1088</v>
       </c>
       <c r="G339" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -13204,10 +13294,10 @@
         <v>1275</v>
       </c>
       <c r="F340" t="s">
-        <v>1560</v>
+        <v>1582</v>
       </c>
       <c r="G340" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -13227,10 +13317,10 @@
         <v>1316</v>
       </c>
       <c r="F341" t="s">
-        <v>1561</v>
+        <v>1583</v>
       </c>
       <c r="G341" t="s">
-        <v>1669</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -13253,7 +13343,7 @@
         <v>946</v>
       </c>
       <c r="G342" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -13273,10 +13363,10 @@
         <v>1299</v>
       </c>
       <c r="F343" t="s">
-        <v>1562</v>
+        <v>1584</v>
       </c>
       <c r="G343" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -13296,10 +13386,10 @@
         <v>1323</v>
       </c>
       <c r="F344" t="s">
-        <v>1563</v>
+        <v>1585</v>
       </c>
       <c r="G344" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -13319,10 +13409,10 @@
         <v>1278</v>
       </c>
       <c r="F345" t="s">
-        <v>1564</v>
+        <v>1586</v>
       </c>
       <c r="G345" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -13345,7 +13435,7 @@
         <v>1088</v>
       </c>
       <c r="G346" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -13365,10 +13455,10 @@
         <v>1275</v>
       </c>
       <c r="F347" t="s">
-        <v>1565</v>
+        <v>1587</v>
       </c>
       <c r="G347" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -13387,8 +13477,11 @@
       <c r="E348" t="s">
         <v>1275</v>
       </c>
+      <c r="F348" t="s">
+        <v>950</v>
+      </c>
       <c r="G348" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -13411,7 +13504,7 @@
         <v>1088</v>
       </c>
       <c r="G349" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -13431,10 +13524,10 @@
         <v>1275</v>
       </c>
       <c r="F350" t="s">
-        <v>1566</v>
+        <v>1588</v>
       </c>
       <c r="G350" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -13454,10 +13547,10 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1517</v>
+        <v>1538</v>
       </c>
       <c r="G351" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -13477,10 +13570,10 @@
         <v>1321</v>
       </c>
       <c r="F352" t="s">
-        <v>1567</v>
+        <v>1589</v>
       </c>
       <c r="G352" t="s">
-        <v>1657</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -13500,10 +13593,10 @@
         <v>1284</v>
       </c>
       <c r="F353" t="s">
-        <v>1568</v>
+        <v>1590</v>
       </c>
       <c r="G353" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -13522,11 +13615,8 @@
       <c r="E354" t="s">
         <v>1275</v>
       </c>
-      <c r="F354" t="s">
-        <v>1569</v>
-      </c>
       <c r="G354" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -13546,10 +13636,10 @@
         <v>1284</v>
       </c>
       <c r="F355" t="s">
-        <v>1570</v>
+        <v>1591</v>
       </c>
       <c r="G355" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13572,7 +13662,7 @@
         <v>946</v>
       </c>
       <c r="G356" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -13592,10 +13682,10 @@
         <v>1324</v>
       </c>
       <c r="F357" t="s">
-        <v>1571</v>
+        <v>1592</v>
       </c>
       <c r="G357" t="s">
-        <v>1670</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -13615,10 +13705,10 @@
         <v>1275</v>
       </c>
       <c r="F358" t="s">
-        <v>946</v>
+        <v>1508</v>
       </c>
       <c r="G358" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13638,10 +13728,10 @@
         <v>1297</v>
       </c>
       <c r="F359" t="s">
-        <v>1572</v>
+        <v>1593</v>
       </c>
       <c r="G359" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13661,10 +13751,10 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1198</v>
+        <v>1554</v>
       </c>
       <c r="G360" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13684,10 +13774,10 @@
         <v>1278</v>
       </c>
       <c r="F361" t="s">
-        <v>1573</v>
+        <v>1594</v>
       </c>
       <c r="G361" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13710,7 +13800,7 @@
         <v>1239</v>
       </c>
       <c r="G362" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13730,10 +13820,10 @@
         <v>1285</v>
       </c>
       <c r="F363" t="s">
-        <v>1574</v>
+        <v>1595</v>
       </c>
       <c r="G363" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13753,10 +13843,10 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1575</v>
+        <v>1596</v>
       </c>
       <c r="G364" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13776,10 +13866,10 @@
         <v>1278</v>
       </c>
       <c r="F365" t="s">
-        <v>1576</v>
+        <v>1597</v>
       </c>
       <c r="G365" t="s">
-        <v>1671</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13802,7 +13892,7 @@
         <v>1088</v>
       </c>
       <c r="G366" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13825,7 +13915,7 @@
         <v>932</v>
       </c>
       <c r="G367" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13845,10 +13935,10 @@
         <v>1297</v>
       </c>
       <c r="F368" t="s">
-        <v>1577</v>
+        <v>1598</v>
       </c>
       <c r="G368" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13868,10 +13958,10 @@
         <v>1321</v>
       </c>
       <c r="F369" t="s">
-        <v>1578</v>
+        <v>1599</v>
       </c>
       <c r="G369" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13891,10 +13981,10 @@
         <v>1284</v>
       </c>
       <c r="F370" t="s">
-        <v>1579</v>
+        <v>1600</v>
       </c>
       <c r="G370" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13914,10 +14004,10 @@
         <v>1278</v>
       </c>
       <c r="F371" t="s">
-        <v>1580</v>
+        <v>1601</v>
       </c>
       <c r="G371" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -13937,10 +14027,10 @@
         <v>1284</v>
       </c>
       <c r="F372" t="s">
-        <v>1581</v>
+        <v>1602</v>
       </c>
       <c r="G372" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -13960,10 +14050,10 @@
         <v>1284</v>
       </c>
       <c r="F373" t="s">
-        <v>1582</v>
+        <v>1603</v>
       </c>
       <c r="G373" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -13983,10 +14073,10 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1583</v>
+        <v>1604</v>
       </c>
       <c r="G374" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -14006,10 +14096,10 @@
         <v>1284</v>
       </c>
       <c r="F375" t="s">
-        <v>1210</v>
+        <v>1605</v>
       </c>
       <c r="G375" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -14029,10 +14119,10 @@
         <v>1278</v>
       </c>
       <c r="F376" t="s">
-        <v>1584</v>
+        <v>1606</v>
       </c>
       <c r="G376" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -14052,10 +14142,10 @@
         <v>1278</v>
       </c>
       <c r="F377" t="s">
-        <v>1585</v>
+        <v>1607</v>
       </c>
       <c r="G377" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -14075,10 +14165,10 @@
         <v>1284</v>
       </c>
       <c r="F378" t="s">
-        <v>1586</v>
+        <v>1608</v>
       </c>
       <c r="G378" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -14098,10 +14188,10 @@
         <v>1325</v>
       </c>
       <c r="F379" t="s">
-        <v>1587</v>
+        <v>1609</v>
       </c>
       <c r="G379" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -14124,7 +14214,7 @@
         <v>1064</v>
       </c>
       <c r="G380" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -14144,10 +14234,10 @@
         <v>1321</v>
       </c>
       <c r="F381" t="s">
-        <v>1588</v>
+        <v>1610</v>
       </c>
       <c r="G381" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -14167,10 +14257,10 @@
         <v>1326</v>
       </c>
       <c r="F382" t="s">
-        <v>1589</v>
+        <v>1611</v>
       </c>
       <c r="G382" t="s">
-        <v>1672</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -14190,10 +14280,10 @@
         <v>1327</v>
       </c>
       <c r="F383" t="s">
-        <v>1590</v>
+        <v>1612</v>
       </c>
       <c r="G383" t="s">
-        <v>1663</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -14213,10 +14303,10 @@
         <v>1328</v>
       </c>
       <c r="F384" t="s">
-        <v>1591</v>
+        <v>1613</v>
       </c>
       <c r="G384" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -14236,10 +14326,10 @@
         <v>1278</v>
       </c>
       <c r="F385" t="s">
-        <v>1592</v>
+        <v>1614</v>
       </c>
       <c r="G385" t="s">
-        <v>1662</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -14259,10 +14349,10 @@
         <v>1324</v>
       </c>
       <c r="F386" t="s">
-        <v>1593</v>
+        <v>1615</v>
       </c>
       <c r="G386" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -14285,7 +14375,7 @@
         <v>995</v>
       </c>
       <c r="G387" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -14305,10 +14395,10 @@
         <v>1282</v>
       </c>
       <c r="F388" t="s">
-        <v>1594</v>
+        <v>1616</v>
       </c>
       <c r="G388" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -14331,7 +14421,7 @@
         <v>1064</v>
       </c>
       <c r="G389" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -14351,10 +14441,10 @@
         <v>1294</v>
       </c>
       <c r="F390" t="s">
-        <v>1595</v>
+        <v>1617</v>
       </c>
       <c r="G390" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -14374,10 +14464,10 @@
         <v>1284</v>
       </c>
       <c r="F391" t="s">
-        <v>1596</v>
+        <v>1618</v>
       </c>
       <c r="G391" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -14397,10 +14487,10 @@
         <v>1284</v>
       </c>
       <c r="F392" t="s">
-        <v>1597</v>
+        <v>1619</v>
       </c>
       <c r="G392" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -14423,7 +14513,7 @@
         <v>1045</v>
       </c>
       <c r="G393" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -14443,10 +14533,10 @@
         <v>1284</v>
       </c>
       <c r="F394" t="s">
-        <v>1088</v>
+        <v>1620</v>
       </c>
       <c r="G394" t="s">
-        <v>1657</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -14469,7 +14559,7 @@
         <v>1088</v>
       </c>
       <c r="G395" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -14489,10 +14579,10 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1598</v>
+        <v>1064</v>
       </c>
       <c r="G396" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -14512,10 +14602,10 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1584</v>
+        <v>1606</v>
       </c>
       <c r="G397" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -14535,10 +14625,10 @@
         <v>1293</v>
       </c>
       <c r="F398" t="s">
-        <v>1599</v>
+        <v>1621</v>
       </c>
       <c r="G398" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -14561,7 +14651,7 @@
         <v>967</v>
       </c>
       <c r="G399" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -14581,10 +14671,10 @@
         <v>1303</v>
       </c>
       <c r="F400" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
       <c r="G400" t="s">
-        <v>1673</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -14604,10 +14694,10 @@
         <v>1293</v>
       </c>
       <c r="F401" t="s">
-        <v>1226</v>
+        <v>1622</v>
       </c>
       <c r="G401" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -14627,10 +14717,10 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1600</v>
+        <v>1623</v>
       </c>
       <c r="G402" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -14650,10 +14740,10 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1601</v>
+        <v>1624</v>
       </c>
       <c r="G403" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -14673,10 +14763,10 @@
         <v>1278</v>
       </c>
       <c r="F404" t="s">
-        <v>1602</v>
+        <v>1625</v>
       </c>
       <c r="G404" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -14696,10 +14786,10 @@
         <v>1324</v>
       </c>
       <c r="F405" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
       <c r="G405" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14722,7 +14812,7 @@
         <v>1088</v>
       </c>
       <c r="G406" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14742,10 +14832,10 @@
         <v>1293</v>
       </c>
       <c r="F407" t="s">
-        <v>1603</v>
+        <v>1626</v>
       </c>
       <c r="G407" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14765,10 +14855,10 @@
         <v>1284</v>
       </c>
       <c r="F408" t="s">
-        <v>963</v>
+        <v>1627</v>
       </c>
       <c r="G408" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14788,10 +14878,10 @@
         <v>1284</v>
       </c>
       <c r="F409" t="s">
-        <v>967</v>
+        <v>1628</v>
       </c>
       <c r="G409" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14814,7 +14904,7 @@
         <v>1233</v>
       </c>
       <c r="G410" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14834,10 +14924,10 @@
         <v>1323</v>
       </c>
       <c r="F411" t="s">
-        <v>1604</v>
+        <v>1629</v>
       </c>
       <c r="G411" t="s">
-        <v>1660</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -14857,10 +14947,10 @@
         <v>1284</v>
       </c>
       <c r="F412" t="s">
-        <v>1605</v>
+        <v>1630</v>
       </c>
       <c r="G412" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14880,10 +14970,10 @@
         <v>1311</v>
       </c>
       <c r="F413" t="s">
-        <v>1606</v>
+        <v>1631</v>
       </c>
       <c r="G413" t="s">
-        <v>1659</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -14903,10 +14993,10 @@
         <v>1284</v>
       </c>
       <c r="F414" t="s">
-        <v>1607</v>
+        <v>1632</v>
       </c>
       <c r="G414" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14926,10 +15016,10 @@
         <v>1329</v>
       </c>
       <c r="F415" t="s">
-        <v>1608</v>
+        <v>1633</v>
       </c>
       <c r="G415" t="s">
-        <v>1674</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -14952,7 +15042,7 @@
         <v>1239</v>
       </c>
       <c r="G416" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -14972,10 +15062,10 @@
         <v>1284</v>
       </c>
       <c r="F417" t="s">
-        <v>1240</v>
+        <v>1634</v>
       </c>
       <c r="G417" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -14995,10 +15085,10 @@
         <v>1330</v>
       </c>
       <c r="F418" t="s">
-        <v>1609</v>
+        <v>1635</v>
       </c>
       <c r="G418" t="s">
-        <v>1661</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -15018,10 +15108,10 @@
         <v>1294</v>
       </c>
       <c r="F419" t="s">
-        <v>1610</v>
+        <v>1636</v>
       </c>
       <c r="G419" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -15041,10 +15131,10 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1611</v>
+        <v>1637</v>
       </c>
       <c r="G420" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -15064,10 +15154,10 @@
         <v>1293</v>
       </c>
       <c r="F421" t="s">
-        <v>1612</v>
+        <v>1638</v>
       </c>
       <c r="G421" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -15087,10 +15177,10 @@
         <v>1285</v>
       </c>
       <c r="F422" t="s">
-        <v>932</v>
+        <v>1362</v>
       </c>
       <c r="G422" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -15113,7 +15203,7 @@
         <v>1064</v>
       </c>
       <c r="G423" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -15136,7 +15226,7 @@
         <v>1244</v>
       </c>
       <c r="G424" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -15156,10 +15246,10 @@
         <v>1297</v>
       </c>
       <c r="F425" t="s">
-        <v>1613</v>
+        <v>1639</v>
       </c>
       <c r="G425" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -15179,10 +15269,10 @@
         <v>1329</v>
       </c>
       <c r="F426" t="s">
-        <v>1614</v>
+        <v>1640</v>
       </c>
       <c r="G426" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -15202,10 +15292,10 @@
         <v>1284</v>
       </c>
       <c r="F427" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="G427" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -15225,10 +15315,10 @@
         <v>1278</v>
       </c>
       <c r="F428" t="s">
-        <v>1616</v>
+        <v>1641</v>
       </c>
       <c r="G428" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -15248,10 +15338,10 @@
         <v>1284</v>
       </c>
       <c r="F429" t="s">
-        <v>1617</v>
+        <v>1642</v>
       </c>
       <c r="G429" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -15271,10 +15361,10 @@
         <v>1293</v>
       </c>
       <c r="F430" t="s">
-        <v>1618</v>
+        <v>1643</v>
       </c>
       <c r="G430" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -15294,10 +15384,10 @@
         <v>1296</v>
       </c>
       <c r="F431" t="s">
-        <v>1619</v>
+        <v>1644</v>
       </c>
       <c r="G431" t="s">
-        <v>1675</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -15317,10 +15407,10 @@
         <v>1296</v>
       </c>
       <c r="F432" t="s">
-        <v>1620</v>
+        <v>1645</v>
       </c>
       <c r="G432" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15343,7 +15433,7 @@
         <v>967</v>
       </c>
       <c r="G433" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15363,10 +15453,10 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1621</v>
+        <v>1646</v>
       </c>
       <c r="G434" t="s">
-        <v>1671</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15386,10 +15476,10 @@
         <v>1284</v>
       </c>
       <c r="F435" t="s">
-        <v>1622</v>
+        <v>1647</v>
       </c>
       <c r="G435" t="s">
-        <v>1662</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15409,10 +15499,10 @@
         <v>1329</v>
       </c>
       <c r="F436" t="s">
-        <v>946</v>
+        <v>1508</v>
       </c>
       <c r="G436" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15432,10 +15522,10 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1623</v>
+        <v>1648</v>
       </c>
       <c r="G437" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15458,7 +15548,7 @@
         <v>1088</v>
       </c>
       <c r="G438" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15478,10 +15568,10 @@
         <v>1278</v>
       </c>
       <c r="F439" t="s">
-        <v>1408</v>
+        <v>1649</v>
       </c>
       <c r="G439" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15504,7 +15594,7 @@
         <v>1226</v>
       </c>
       <c r="G440" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -15524,10 +15614,10 @@
         <v>1278</v>
       </c>
       <c r="F441" t="s">
-        <v>1624</v>
+        <v>1650</v>
       </c>
       <c r="G441" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15547,10 +15637,10 @@
         <v>1278</v>
       </c>
       <c r="F442" t="s">
-        <v>1625</v>
+        <v>1651</v>
       </c>
       <c r="G442" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15570,10 +15660,10 @@
         <v>1293</v>
       </c>
       <c r="F443" t="s">
-        <v>1626</v>
+        <v>1652</v>
       </c>
       <c r="G443" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -15593,10 +15683,10 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1627</v>
+        <v>1653</v>
       </c>
       <c r="G444" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -15616,10 +15706,10 @@
         <v>1331</v>
       </c>
       <c r="F445" t="s">
-        <v>1628</v>
+        <v>1654</v>
       </c>
       <c r="G445" t="s">
-        <v>1676</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -15639,10 +15729,10 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1629</v>
+        <v>932</v>
       </c>
       <c r="G446" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -15662,10 +15752,10 @@
         <v>1321</v>
       </c>
       <c r="F447" t="s">
-        <v>1630</v>
+        <v>1655</v>
       </c>
       <c r="G447" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -15685,10 +15775,10 @@
         <v>1284</v>
       </c>
       <c r="F448" t="s">
-        <v>1631</v>
+        <v>1656</v>
       </c>
       <c r="G448" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -15708,10 +15798,10 @@
         <v>1293</v>
       </c>
       <c r="F449" t="s">
-        <v>1632</v>
+        <v>1657</v>
       </c>
       <c r="G449" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -15731,10 +15821,10 @@
         <v>1284</v>
       </c>
       <c r="F450" t="s">
-        <v>967</v>
+        <v>1658</v>
       </c>
       <c r="G450" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15754,10 +15844,10 @@
         <v>1284</v>
       </c>
       <c r="F451" t="s">
-        <v>1633</v>
+        <v>1659</v>
       </c>
       <c r="G451" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15777,10 +15867,10 @@
         <v>1321</v>
       </c>
       <c r="F452" t="s">
-        <v>1634</v>
+        <v>1660</v>
       </c>
       <c r="G452" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15800,10 +15890,10 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1635</v>
+        <v>1661</v>
       </c>
       <c r="G453" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -15826,7 +15916,7 @@
         <v>946</v>
       </c>
       <c r="G454" t="s">
-        <v>1663</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15846,10 +15936,10 @@
         <v>1333</v>
       </c>
       <c r="F455" t="s">
-        <v>1636</v>
+        <v>1662</v>
       </c>
       <c r="G455" t="s">
-        <v>1668</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -15869,10 +15959,10 @@
         <v>1278</v>
       </c>
       <c r="F456" t="s">
-        <v>1549</v>
+        <v>1570</v>
       </c>
       <c r="G456" t="s">
-        <v>1666</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -15892,10 +15982,10 @@
         <v>1278</v>
       </c>
       <c r="F457" t="s">
-        <v>1637</v>
+        <v>1663</v>
       </c>
       <c r="G457" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -15915,10 +16005,10 @@
         <v>1334</v>
       </c>
       <c r="F458" t="s">
-        <v>1638</v>
+        <v>1664</v>
       </c>
       <c r="G458" t="s">
-        <v>1677</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -15938,10 +16028,10 @@
         <v>1293</v>
       </c>
       <c r="F459" t="s">
-        <v>1639</v>
+        <v>1665</v>
       </c>
       <c r="G459" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -15964,7 +16054,7 @@
         <v>946</v>
       </c>
       <c r="G460" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -15984,10 +16074,10 @@
         <v>1321</v>
       </c>
       <c r="F461" t="s">
-        <v>1640</v>
+        <v>1666</v>
       </c>
       <c r="G461" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -16007,10 +16097,10 @@
         <v>1303</v>
       </c>
       <c r="F462" t="s">
-        <v>1641</v>
+        <v>1667</v>
       </c>
       <c r="G462" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -16030,10 +16120,10 @@
         <v>1335</v>
       </c>
       <c r="F463" t="s">
-        <v>1642</v>
+        <v>1668</v>
       </c>
       <c r="G463" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
   </sheetData>
